--- a/作业情况.xlsx
+++ b/作业情况.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05Code\06CPP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5EC31A-1824-4508-8231-42C5C6FA33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,20 @@
     <sheet name="Sheet8" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet9" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="111">
   <si>
     <t>题号</t>
   </si>
@@ -94,7 +108,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -103,7 +117,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>¥</t>
     </r>
@@ -112,7 +126,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -350,19 +364,52 @@
   </si>
   <si>
     <t>140 B</t>
+  </si>
+  <si>
+    <t>课堂</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,25 +422,25 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF4183C4"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -410,157 +457,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,194 +509,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -804,255 +536,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,62 +588,45 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1411,1104 +884,1473 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="A1:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="4" width="9.375"/>
-    <col min="5" max="6" width="11.375"/>
+    <col min="1" max="1" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.21875" customWidth="1"/>
+    <col min="10" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:13">
-      <c r="A2" s="12">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="12">
         <v>1000</v>
       </c>
-      <c r="B2">
-        <f>VLOOKUP(A2,I:I,1,0)</f>
+      <c r="C2">
+        <f>VLOOKUP(B2,J:J,1,0)</f>
         <v>1000</v>
       </c>
-      <c r="C2">
-        <f>VLOOKUP(A2,J:J,1,0)</f>
+      <c r="D2">
+        <f>VLOOKUP(B2,K:K,1,0)</f>
         <v>1000</v>
       </c>
-      <c r="D2">
-        <f>VLOOKUP(A2,K:K,1,0)</f>
+      <c r="E2">
+        <f>VLOOKUP(B2,L:L,1,0)</f>
         <v>1000</v>
       </c>
-      <c r="E2">
-        <f>VLOOKUP(A2,L:L,1,0)</f>
+      <c r="F2">
+        <f>VLOOKUP(B2,M:M,1,0)</f>
         <v>1000</v>
       </c>
-      <c r="F2">
-        <f>VLOOKUP(A2,M:M,1,0)</f>
+      <c r="G2">
+        <f>VLOOKUP(B2,N:N,1,0)</f>
         <v>1000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>1044</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>1031</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>1417</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>1416</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>1031</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="12">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="12">
         <v>1320</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">VLOOKUP(A3,I:I,1,0)</f>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">VLOOKUP(B3,J:J,1,0)</f>
         <v>1320</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C24" si="1">VLOOKUP(A3,J:J,1,0)</f>
+      <c r="D3">
+        <f>VLOOKUP(B3,K:K,1,0)</f>
         <v>1320</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D24" si="2">VLOOKUP(A3,K:K,1,0)</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E33" si="1">VLOOKUP(B3,L:L,1,0)</f>
         <v>1320</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E24" si="3">VLOOKUP(A3,L:L,1,0)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F33" si="2">VLOOKUP(B3,M:M,1,0)</f>
         <v>1320</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F24" si="4">VLOOKUP(A3,M:M,1,0)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G33" si="3">VLOOKUP(B3,N:N,1,0)</f>
         <v>1320</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="9">
         <v>1045</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="9">
         <v>1049</v>
       </c>
-      <c r="K3" s="9">
+      <c r="L3" s="9">
         <v>1416</v>
       </c>
-      <c r="L3" s="9">
+      <c r="M3" s="9">
         <v>1317</v>
       </c>
-      <c r="M3" s="9">
+      <c r="N3" s="9">
         <v>1303</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="12">
         <v>1416</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>1416</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <f>VLOOKUP(B4,K:K,1,0)</f>
+        <v>1416</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>1416</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <f t="shared" si="2"/>
         <v>1416</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <f t="shared" si="3"/>
         <v>1416</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="4"/>
-        <v>1416</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>1304</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>1044</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1300</v>
       </c>
       <c r="L4" s="4">
         <v>1300</v>
       </c>
       <c r="M4" s="4">
+        <v>1300</v>
+      </c>
+      <c r="N4" s="4">
         <v>1028</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:13">
-      <c r="A5" s="12">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="12">
         <v>1417</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>1417</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <f>VLOOKUP(B5,K:K,1,0)</f>
+        <v>1417</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>1417</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <f t="shared" si="2"/>
         <v>1417</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <f t="shared" si="3"/>
         <v>1417</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="4"/>
-        <v>1417</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>1037</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="9">
         <v>1304</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="9">
         <v>1301</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <v>1039</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>1027</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:13">
-      <c r="A6" s="12">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="12">
         <v>1005</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <f>VLOOKUP(B6,K:K,1,0)</f>
+        <v>1005</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>1005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <f t="shared" si="2"/>
         <v>1005</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <f t="shared" si="3"/>
         <v>1005</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
-        <v>1005</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>1043</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>1324</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>1302</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>1044</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>1329</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="12">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="12">
         <v>1031</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <f>VLOOKUP(B7,K:K,1,0)</f>
+        <v>1031</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>1031</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <f t="shared" si="2"/>
         <v>1031</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <f t="shared" si="3"/>
         <v>1031</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="4"/>
-        <v>1031</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="J7" s="9">
         <v>1303</v>
       </c>
-      <c r="J7" s="9">
+      <c r="K7" s="9">
         <v>1030</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="9">
         <v>1044</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>1305</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
         <v>1005</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="12">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="12">
         <v>1317</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>1317</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <f>VLOOKUP(B8,K:K,1,0)</f>
+        <v>1317</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>1317</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <f t="shared" si="2"/>
         <v>1317</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <f t="shared" si="3"/>
         <v>1317</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="4"/>
+      <c r="J8" s="4">
+        <v>1390</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1034</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1304</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1035</v>
+      </c>
+      <c r="N8" s="4">
         <v>1317</v>
       </c>
-      <c r="I8" s="4">
-        <v>1390</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1034</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1304</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1035</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:13">
-      <c r="A9" s="12">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="12">
         <v>1329</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>1329</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <f>VLOOKUP(B9,K:K,1,0)</f>
+        <v>1329</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>1329</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>1329</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <f t="shared" si="3"/>
         <v>1329</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
-        <v>1329</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="J9" s="9">
         <v>1028</v>
       </c>
-      <c r="J9" s="9">
+      <c r="K9" s="9">
         <v>1043</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>1303</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
         <v>1304</v>
       </c>
-      <c r="M9" s="9">
+      <c r="N9" s="9">
         <v>1317</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:13">
-      <c r="A10" s="12">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="12">
         <v>1337</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>1337</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <f>VLOOKUP(B10,K:K,1,0)</f>
+        <v>1337</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>1337</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <f t="shared" si="2"/>
         <v>1337</v>
       </c>
-      <c r="E10">
+      <c r="G10" t="e">
         <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1027</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1303</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1030</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1338</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1338</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(B11,K:K,1,0)</f>
+        <v>1338</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1338</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1338</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="9">
         <v>1337</v>
       </c>
-      <c r="F10" t="e">
+      <c r="K11" s="9">
+        <v>1109</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1029</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1043</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1027</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C33" si="4">VLOOKUP(B12,J:J,1,0)</f>
+        <v>1027</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(B12,K:K,1,0)</f>
+        <v>1027</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1027</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1027</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1027</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1338</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1390</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1390</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1302</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1109</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>1109</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(B13,K:K,1,0)</f>
+        <v>1109</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1109</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1109</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1329</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1028</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1028</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1033</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1390</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>1390</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(B14,K:K,1,0)</f>
+        <v>1390</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1390</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1390</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1005</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1027</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1027</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1034</v>
+      </c>
+      <c r="N14">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1030</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>1030</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(B15,K:K,1,0)</f>
+        <v>1030</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1030</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1030</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1317</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1337</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1337</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1303</v>
+      </c>
+      <c r="N15">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1033</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>1033</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(B16,K:K,1,0)</f>
+        <v>1033</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1033</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>1033</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1417</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1338</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1338</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1034</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>1034</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(B17,K:K,1,0)</f>
+        <v>1034</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1034</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1320</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1329</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1329</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1037</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>1037</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(B18,K:K,1,0)</f>
+        <v>1037</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1037</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1416</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1005</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1320</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1043</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>1043</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(B19,K:K,1,0)</f>
+        <v>1043</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1043</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1317</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1329</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1045</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>1045</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(B20,K:K,1,0)</f>
+        <v>1045</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1045</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J20">
+        <v>1031</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1417</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1329</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1302</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>1302</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(B21,K:K,1,0)</f>
+        <v>1302</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1302</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1302</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J21">
+        <v>1109</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1320</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="9">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1303</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>1303</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP(B22,K:K,1,0)</f>
+        <v>1303</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1303</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1303</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1303</v>
+      </c>
+      <c r="J22">
+        <v>1033</v>
+      </c>
+      <c r="K22">
+        <v>1416</v>
+      </c>
+      <c r="L22">
+        <v>1005</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1309</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>1309</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP(B23,K:K,1,0)</f>
+        <v>1309</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1309</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J23">
+        <v>1030</v>
+      </c>
+      <c r="K23">
+        <v>1000</v>
+      </c>
+      <c r="L23">
+        <v>1317</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1324</v>
+      </c>
+      <c r="C24" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="4">
-        <v>1027</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1303</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1109</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1030</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:13">
-      <c r="A11" s="12">
-        <v>1338</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1338</v>
-      </c>
-      <c r="C11">
+      <c r="D24">
+        <f>VLOOKUP(B24,K:K,1,0)</f>
+        <v>1324</v>
+      </c>
+      <c r="E24" t="e">
         <f t="shared" si="1"/>
-        <v>1338</v>
-      </c>
-      <c r="D11">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" t="e">
         <f t="shared" si="2"/>
-        <v>1338</v>
-      </c>
-      <c r="E11">
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="e">
         <f t="shared" si="3"/>
-        <v>1338</v>
-      </c>
-      <c r="F11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J24">
+        <v>1034</v>
+      </c>
+      <c r="K24">
+        <v>1033</v>
+      </c>
+      <c r="L24">
+        <v>1031</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1035</v>
+      </c>
+      <c r="C25" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="9">
-        <v>1337</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1109</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1029</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1043</v>
-      </c>
-      <c r="M11" s="9">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:13">
-      <c r="A12" s="12">
-        <v>1027</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:B24" si="5">VLOOKUP(A12,I:I,1,0)</f>
-        <v>1027</v>
-      </c>
-      <c r="C12">
+      <c r="D25">
+        <f>VLOOKUP(B25,K:K,1,0)</f>
+        <v>1035</v>
+      </c>
+      <c r="E25" t="e">
         <f t="shared" si="1"/>
-        <v>1027</v>
-      </c>
-      <c r="D12">
+        <v>#N/A</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="2"/>
-        <v>1027</v>
-      </c>
-      <c r="E12">
+        <v>1035</v>
+      </c>
+      <c r="G25" t="e">
         <f t="shared" si="3"/>
-        <v>1027</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>1027</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1338</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1390</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1390</v>
-      </c>
-      <c r="L12" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J25">
         <v>1302</v>
       </c>
-      <c r="M12" s="4">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="12">
-        <v>1109</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="5"/>
-        <v>1109</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>1109</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>1109</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>1109</v>
-      </c>
-      <c r="F13" t="e">
+      <c r="K25">
+        <v>1037</v>
+      </c>
+      <c r="L25">
+        <v>1030</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1039</v>
+      </c>
+      <c r="C26" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="9">
-        <v>1329</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1028</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1028</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1033</v>
-      </c>
-      <c r="M13" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="12">
-        <v>1390</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="5"/>
-        <v>1390</v>
-      </c>
-      <c r="C14">
+      <c r="D26">
+        <f>VLOOKUP(B26,K:K,1,0)</f>
+        <v>1039</v>
+      </c>
+      <c r="E26" t="e">
         <f t="shared" si="1"/>
-        <v>1390</v>
-      </c>
-      <c r="D14">
+        <v>#N/A</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="2"/>
-        <v>1390</v>
-      </c>
-      <c r="E14">
+        <v>1039</v>
+      </c>
+      <c r="G26" t="e">
         <f t="shared" si="3"/>
-        <v>1390</v>
-      </c>
-      <c r="F14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J26">
+        <v>1309</v>
+      </c>
+      <c r="K26">
+        <v>1045</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1044</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>1044</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP(B27,K:K,1,0)</f>
+        <v>1044</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1044</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K27">
+        <v>1302</v>
+      </c>
+      <c r="M27">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1049</v>
+      </c>
+      <c r="C28" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="4">
+      <c r="D28">
+        <f>VLOOKUP(B28,K:K,1,0)</f>
+        <v>1049</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1049</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K28">
+        <v>1309</v>
+      </c>
+      <c r="M28">
         <v>1005</v>
       </c>
-      <c r="J14" s="4">
-        <v>1027</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1027</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1034</v>
-      </c>
-      <c r="M14">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:13">
-      <c r="A15" s="12">
-        <v>1030</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="5"/>
-        <v>1030</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>1030</v>
-      </c>
-      <c r="D15">
-        <v>1030</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>1030</v>
-      </c>
-      <c r="F15" t="e">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1300</v>
+      </c>
+      <c r="C29" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="9">
-        <v>1317</v>
-      </c>
-      <c r="J15" s="9">
-        <v>1337</v>
-      </c>
-      <c r="K15" s="9">
-        <v>1337</v>
-      </c>
-      <c r="L15" s="9">
-        <v>1303</v>
-      </c>
-      <c r="M15">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:12">
-      <c r="A16" s="12">
-        <v>1033</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="5"/>
-        <v>1033</v>
-      </c>
-      <c r="C16">
+      <c r="D29">
+        <f>VLOOKUP(B29,K:K,1,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="1"/>
-        <v>1033</v>
-      </c>
-      <c r="D16" t="e">
+        <v>1300</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K29">
+        <v>1035</v>
+      </c>
+      <c r="M29">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1304</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>1304</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(B30,K:K,1,0)</f>
+        <v>1304</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1304</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1304</v>
+      </c>
+      <c r="G30" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K30">
+        <v>1039</v>
+      </c>
+      <c r="M30">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1305</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(B31,K:K,1,0)</f>
+        <v>1305</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>1305</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K31">
+        <v>1391</v>
+      </c>
+      <c r="M31">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="12">
+        <v>1322</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(B32,K:K,1,0)</f>
+        <v>1322</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="E16">
+      <c r="G32" t="e">
         <f t="shared" si="3"/>
-        <v>1033</v>
-      </c>
-      <c r="F16">
+        <v>#N/A</v>
+      </c>
+      <c r="K32">
+        <v>1322</v>
+      </c>
+      <c r="M32">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="12">
+        <v>1391</v>
+      </c>
+      <c r="C33" t="e">
         <f t="shared" si="4"/>
-        <v>1033</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1417</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1338</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1338</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:12">
-      <c r="A17" s="12">
-        <v>1034</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="5"/>
-        <v>1034</v>
-      </c>
-      <c r="C17">
+        <v>#N/A</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(B33,K:K,1,0)</f>
+        <v>1391</v>
+      </c>
+      <c r="E33" t="e">
         <f t="shared" si="1"/>
-        <v>1034</v>
-      </c>
-      <c r="D17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>1034</v>
-      </c>
-      <c r="F17" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1320</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1329</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1329</v>
-      </c>
-      <c r="L17" s="9">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:12">
-      <c r="A18" s="12">
-        <v>1037</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="5"/>
-        <v>1037</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>1037</v>
-      </c>
-      <c r="D18" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>1037</v>
-      </c>
-      <c r="F18" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1416</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1005</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1320</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:12">
-      <c r="A19" s="12">
-        <v>1043</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="5"/>
-        <v>1043</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>1043</v>
-      </c>
-      <c r="D19" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>1043</v>
-      </c>
-      <c r="F19" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J19" s="9">
-        <v>1317</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1329</v>
-      </c>
-      <c r="L19" s="9">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:12">
-      <c r="A20" s="12">
-        <v>1045</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="5"/>
-        <v>1045</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>1045</v>
-      </c>
-      <c r="D20" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" t="e">
+      <c r="G33" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F20" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I20">
-        <v>1031</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1417</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1329</v>
-      </c>
-      <c r="L20" s="4">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:12">
-      <c r="A21" s="12">
-        <v>1302</v>
-      </c>
-      <c r="B21" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>1302</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>1302</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>1302</v>
-      </c>
-      <c r="F21" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I21">
-        <v>1109</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="K33">
+        <v>1305</v>
+      </c>
+      <c r="M33">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1300</v>
+      </c>
+      <c r="M34">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M35">
         <v>1320</v>
       </c>
-      <c r="K21" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="9">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:12">
-      <c r="A22" s="12">
-        <v>1303</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="5"/>
-        <v>1303</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>1303</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>1303</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>1303</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
-        <v>1303</v>
-      </c>
-      <c r="I22">
-        <v>1033</v>
-      </c>
-      <c r="J22">
-        <v>1320</v>
-      </c>
-      <c r="K22">
-        <v>1005</v>
-      </c>
-      <c r="L22" s="4">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:12">
-      <c r="A23" s="12">
-        <v>1309</v>
-      </c>
-      <c r="B23" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C23" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I23">
-        <v>1030</v>
-      </c>
-      <c r="J23">
-        <v>1416</v>
-      </c>
-      <c r="K23">
-        <v>1317</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:12">
-      <c r="A24" s="12">
-        <v>1324</v>
-      </c>
-      <c r="B24" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>1324</v>
-      </c>
-      <c r="D24" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I24">
-        <v>1034</v>
-      </c>
-      <c r="J24">
-        <v>1000</v>
-      </c>
-      <c r="K24">
-        <v>1031</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="10:12">
-      <c r="J25">
-        <v>1033</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="26" spans="10:12">
-      <c r="J26">
-        <v>1037</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="27" spans="10:12">
-      <c r="J27">
-        <v>1045</v>
-      </c>
-      <c r="L27">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="28" spans="10:12">
-      <c r="J28">
-        <v>1302</v>
-      </c>
-      <c r="L28">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="29" spans="12:12">
-      <c r="L29">
-        <v>1037</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="I3" r:id="rId2" display="1045" tooltip="http://oj.czos.cn/problem.php?id=1045"/>
-    <hyperlink ref="I4" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="I5" r:id="rId4" display="1037" tooltip="http://oj.czos.cn/problem.php?id=1037"/>
-    <hyperlink ref="I6" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="I7" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="I8" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="I9" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="I10" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="I11" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="I12" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="I13" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="I14" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="I15" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="I16" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="I17" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="I18" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="I19" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
-    <hyperlink ref="J2" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="J3" r:id="rId20" display="1049" tooltip="http://oj.czos.cn/problem.php?id=1049"/>
-    <hyperlink ref="J4" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="J5" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="J6" r:id="rId21" display="1324" tooltip="http://oj.czos.cn/problem.php?id=1324"/>
-    <hyperlink ref="J7" r:id="rId22" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
-    <hyperlink ref="J8" r:id="rId23" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
-    <hyperlink ref="J9" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="J10" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="J11" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="J12" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="J13" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="J14" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="J15" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="J16" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="J17" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="J18" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="J19" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="J20" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="J21" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="K2" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="K3" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="K4" r:id="rId25" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
-    <hyperlink ref="K5" r:id="rId26" display="1301" tooltip="http://oj.czos.cn/problem.php?id=1301"/>
-    <hyperlink ref="K6" r:id="rId27" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
-    <hyperlink ref="K7" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="K8" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="K9" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="K10" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="K11" r:id="rId28" display="1029" tooltip="http://oj.czos.cn/problem.php?id=1029"/>
-    <hyperlink ref="K12" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="K13" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="K14" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="K15" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="K16" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="K17" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="K18" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="K19" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="K20" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="K21" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
-    <hyperlink ref="L2" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="L3" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="L4" r:id="rId25" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
-    <hyperlink ref="L5" r:id="rId29" display="1039" tooltip="http://oj.czos.cn/problem.php?id=1039"/>
-    <hyperlink ref="L6" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="L7" r:id="rId30" display="1305" tooltip="http://oj.czos.cn/problem.php?id=1305"/>
-    <hyperlink ref="L8" r:id="rId31" display="1035" tooltip="http://oj.czos.cn/problem.php?id=1035"/>
-    <hyperlink ref="L9" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="L10" r:id="rId22" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
-    <hyperlink ref="L11" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="L12" r:id="rId27" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
-    <hyperlink ref="L13" r:id="rId32" display="1033" tooltip="http://oj.czos.cn/problem.php?id=1033"/>
-    <hyperlink ref="L14" r:id="rId23" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
-    <hyperlink ref="L15" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="L16" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="L17" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="L18" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="L19" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="L20" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="L21" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="L22" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="L23" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="L24" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
-    <hyperlink ref="L25" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="L26" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="M2" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="M3" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="M4" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="M5" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="M6" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="M7" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="M8" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="M9" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="M10" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="M11" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="M12" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="M13" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="J2" r:id="rId1" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1045" display="1045" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1037" display="1037" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K2" r:id="rId19" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K3" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1049" display="1049" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K4" r:id="rId21" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K5" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K6" r:id="rId23" tooltip="http://oj.czos.cn/problem.php?id=1324" display="1324" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K7" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K8" r:id="rId25" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K9" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K10" r:id="rId27" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K11" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K12" r:id="rId29" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K13" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K14" r:id="rId31" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K15" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K16" r:id="rId33" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K17" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K18" r:id="rId35" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K20" r:id="rId37" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K21" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L2" r:id="rId39" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L3" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L4" r:id="rId41" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L5" r:id="rId42" tooltip="http://oj.czos.cn/problem.php?id=1301" display="1301" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L6" r:id="rId43" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L7" r:id="rId44" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L8" r:id="rId45" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L9" r:id="rId46" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L10" r:id="rId47" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L11" r:id="rId48" tooltip="http://oj.czos.cn/problem.php?id=1029" display="1029" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L12" r:id="rId49" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L13" r:id="rId50" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="L14" r:id="rId51" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L15" r:id="rId52" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L16" r:id="rId53" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L17" r:id="rId54" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L18" r:id="rId55" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L19" r:id="rId56" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L20" r:id="rId57" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L21" r:id="rId58" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="M2" r:id="rId59" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="M3" r:id="rId60" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M4" r:id="rId61" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M5" r:id="rId62" tooltip="http://oj.czos.cn/problem.php?id=1039" display="1039" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="M6" r:id="rId63" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M7" r:id="rId64" tooltip="http://oj.czos.cn/problem.php?id=1305" display="1305" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M8" r:id="rId65" tooltip="http://oj.czos.cn/problem.php?id=1035" display="1035" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M9" r:id="rId66" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M10" r:id="rId67" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M11" r:id="rId68" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="M12" r:id="rId69" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="M13" r:id="rId70" tooltip="http://oj.czos.cn/problem.php?id=1033" display="1033" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="M14" r:id="rId71" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="M15" r:id="rId72" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="M16" r:id="rId73" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="M17" r:id="rId74" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="M18" r:id="rId75" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="M19" r:id="rId76" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M20" r:id="rId77" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="M21" r:id="rId78" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="M22" r:id="rId79" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="M23" r:id="rId80" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="M24" r:id="rId81" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="M25" r:id="rId82" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="M26" r:id="rId83" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="N2" r:id="rId84" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="N3" r:id="rId85" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="N4" r:id="rId86" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="N5" r:id="rId87" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="N6" r:id="rId88" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="N7" r:id="rId89" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="N8" r:id="rId90" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="N9" r:id="rId91" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="N10" r:id="rId92" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="N11" r:id="rId93" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="N12" r:id="rId94" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="N13" r:id="rId95" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2537,7 +2379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>149455</v>
       </c>
@@ -2560,13 +2402,13 @@
         <v>22</v>
       </c>
       <c r="H2" s="6">
-        <v>43799.6352777778</v>
+        <v>43799.635277777801</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="27.75" spans="1:9">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>149273</v>
       </c>
@@ -2589,13 +2431,13 @@
         <v>24</v>
       </c>
       <c r="H3" s="11">
-        <v>43799.6022222222</v>
+        <v>43799.602222222202</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="27.75" spans="1:9">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>149232</v>
       </c>
@@ -2618,13 +2460,13 @@
         <v>25</v>
       </c>
       <c r="H4" s="6">
-        <v>43799.5953819444</v>
+        <v>43799.595381944397</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="27.75" spans="1:9">
+    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>148045</v>
       </c>
@@ -2647,13 +2489,13 @@
         <v>26</v>
       </c>
       <c r="H5" s="11">
-        <v>43797.9040277778</v>
+        <v>43797.904027777797</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="27.75" spans="1:9">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>148033</v>
       </c>
@@ -2676,13 +2518,13 @@
         <v>27</v>
       </c>
       <c r="H6" s="6">
-        <v>43797.8972916667</v>
+        <v>43797.897291666697</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="1:9">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>145232</v>
       </c>
@@ -2705,13 +2547,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="11">
-        <v>43792.6280671296</v>
+        <v>43792.628067129597</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="27.75" spans="1:9">
+    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>135514</v>
       </c>
@@ -2734,13 +2576,13 @@
         <v>28</v>
       </c>
       <c r="H8" s="6">
-        <v>43771.6423263889</v>
+        <v>43771.642326388901</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="27.75" spans="1:9">
+    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>135450</v>
       </c>
@@ -2763,13 +2605,13 @@
         <v>29</v>
       </c>
       <c r="H9" s="11">
-        <v>43771.6249884259</v>
+        <v>43771.624988425901</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="27.75" spans="1:9">
+    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>135387</v>
       </c>
@@ -2792,13 +2634,13 @@
         <v>30</v>
       </c>
       <c r="H10" s="6">
-        <v>43771.6165972222</v>
+        <v>43771.616597222201</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="27.75" spans="1:9">
+    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>132953</v>
       </c>
@@ -2821,13 +2663,13 @@
         <v>24</v>
       </c>
       <c r="H11" s="11">
-        <v>43765.4196990741</v>
+        <v>43765.419699074097</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="27.75" spans="1:9">
+    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>132801</v>
       </c>
@@ -2850,13 +2692,13 @@
         <v>31</v>
       </c>
       <c r="H12" s="6">
-        <v>43764.8778472222</v>
+        <v>43764.877847222197</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="27.75" spans="1:9">
+    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>132788</v>
       </c>
@@ -2879,13 +2721,13 @@
         <v>32</v>
       </c>
       <c r="H13" s="11">
-        <v>43764.8682407407</v>
+        <v>43764.868240740703</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="27.75" spans="1:9">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>132531</v>
       </c>
@@ -2914,7 +2756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="27.75" spans="1:9">
+    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>132330</v>
       </c>
@@ -2937,13 +2779,13 @@
         <v>34</v>
       </c>
       <c r="H15" s="11">
-        <v>43764.6012384259</v>
+        <v>43764.601238425901</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="27.75" spans="1:9">
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>131664</v>
       </c>
@@ -2966,13 +2808,13 @@
         <v>35</v>
       </c>
       <c r="H16" s="6">
-        <v>43763.8902083333</v>
+        <v>43763.890208333301</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="27.75" spans="1:9">
+    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>129354</v>
       </c>
@@ -2995,13 +2837,13 @@
         <v>36</v>
       </c>
       <c r="H17" s="11">
-        <v>43757.6373958333</v>
+        <v>43757.637395833299</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="27.75" spans="1:9">
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>129219</v>
       </c>
@@ -3024,13 +2866,13 @@
         <v>37</v>
       </c>
       <c r="H18" s="6">
-        <v>43757.6139930556</v>
+        <v>43757.613993055602</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:9">
+    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>129154</v>
       </c>
@@ -3053,68 +2895,65 @@
         <v>38</v>
       </c>
       <c r="H19" s="11">
-        <v>43757.5985648148</v>
+        <v>43757.598564814798</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C2" r:id="rId2" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="B3" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C3" r:id="rId3" display="1045" tooltip="http://oj.czos.cn/problem.php?id=1045"/>
-    <hyperlink ref="B4" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C4" r:id="rId4" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="B5" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C5" r:id="rId5" display="1037" tooltip="http://oj.czos.cn/problem.php?id=1037"/>
-    <hyperlink ref="B6" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C6" r:id="rId6" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="B7" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C7" r:id="rId7" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B8" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C8" r:id="rId8" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="B9" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C9" r:id="rId9" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B10" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C10" r:id="rId10" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B11" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C11" r:id="rId11" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="B12" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C12" r:id="rId12" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="B13" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C13" r:id="rId13" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B14" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C14" r:id="rId14" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="B15" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C15" r:id="rId15" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B16" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C16" r:id="rId16" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B17" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C17" r:id="rId17" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="B18" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C18" r:id="rId18" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B19" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C19" r:id="rId19" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1045" display="1045" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1037" display="1037" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3143,7 +2982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153352</v>
       </c>
@@ -3166,13 +3005,13 @@
         <v>40</v>
       </c>
       <c r="H2" s="6">
-        <v>43806.5896759259</v>
+        <v>43806.589675925898</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="27.75" spans="1:9">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>153178</v>
       </c>
@@ -3195,13 +3034,13 @@
         <v>41</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.5638310185</v>
+        <v>43806.563831018502</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="27.75" spans="1:9">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>149466</v>
       </c>
@@ -3224,13 +3063,13 @@
         <v>43</v>
       </c>
       <c r="H4" s="6">
-        <v>43799.6408333333</v>
+        <v>43799.640833333302</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="27.75" spans="1:9">
+    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>149276</v>
       </c>
@@ -3253,13 +3092,13 @@
         <v>44</v>
       </c>
       <c r="H5" s="11">
-        <v>43799.6029976852</v>
+        <v>43799.602997685201</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="27.75" spans="1:9">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>146792</v>
       </c>
@@ -3282,13 +3121,13 @@
         <v>45</v>
       </c>
       <c r="H6" s="6">
-        <v>43793.8931712963</v>
+        <v>43793.893171296302</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="1:9">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>146777</v>
       </c>
@@ -3311,13 +3150,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="11">
-        <v>43793.8857291667</v>
+        <v>43793.885729166701</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="27.75" spans="1:9">
+    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>146766</v>
       </c>
@@ -3340,13 +3179,13 @@
         <v>47</v>
       </c>
       <c r="H8" s="6">
-        <v>43793.8735069444</v>
+        <v>43793.873506944401</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="27.75" spans="1:9">
+    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>146760</v>
       </c>
@@ -3369,13 +3208,13 @@
         <v>33</v>
       </c>
       <c r="H9" s="11">
-        <v>43793.8704050926</v>
+        <v>43793.870405092603</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="27.75" spans="1:9">
+    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>145257</v>
       </c>
@@ -3404,7 +3243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="27.75" spans="1:9">
+    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>135615</v>
       </c>
@@ -3427,13 +3266,13 @@
         <v>28</v>
       </c>
       <c r="H11" s="11">
-        <v>43771.6833101852</v>
+        <v>43771.683310185203</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="27.75" spans="1:9">
+    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>135488</v>
       </c>
@@ -3456,13 +3295,13 @@
         <v>49</v>
       </c>
       <c r="H12" s="6">
-        <v>43771.632337963</v>
+        <v>43771.632337962998</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="27.75" spans="1:9">
+    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>135462</v>
       </c>
@@ -3485,13 +3324,13 @@
         <v>50</v>
       </c>
       <c r="H13" s="11">
-        <v>43771.6277314815</v>
+        <v>43771.627731481502</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="27.75" spans="1:9">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>135408</v>
       </c>
@@ -3514,13 +3353,13 @@
         <v>51</v>
       </c>
       <c r="H14" s="6">
-        <v>43771.6202314815</v>
+        <v>43771.620231481502</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="27.75" spans="1:9">
+    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>133692</v>
       </c>
@@ -3549,7 +3388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="27.75" spans="1:9">
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>132604</v>
       </c>
@@ -3578,7 +3417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="27.75" spans="1:9">
+    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>132592</v>
       </c>
@@ -3607,7 +3446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="27.75" spans="1:9">
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>132548</v>
       </c>
@@ -3630,13 +3469,13 @@
         <v>55</v>
       </c>
       <c r="H18" s="6">
-        <v>43764.6403472222</v>
+        <v>43764.640347222201</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" ht="27.75" spans="1:9">
+    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>132377</v>
       </c>
@@ -3659,13 +3498,13 @@
         <v>56</v>
       </c>
       <c r="H19" s="11">
-        <v>43764.6084259259</v>
+        <v>43764.608425925901</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="27.75" spans="1:9">
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>131403</v>
       </c>
@@ -3688,13 +3527,13 @@
         <v>38</v>
       </c>
       <c r="H20" s="6">
-        <v>43762.7978587963</v>
+        <v>43762.797858796301</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:9">
+    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>129331</v>
       </c>
@@ -3717,72 +3556,71 @@
         <v>57</v>
       </c>
       <c r="H21" s="11">
-        <v>43757.6314699074</v>
+        <v>43757.631469907399</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="B3" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C3" r:id="rId3" display="1049" tooltip="http://oj.czos.cn/problem.php?id=1049"/>
-    <hyperlink ref="B4" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C4" r:id="rId4" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="B5" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C5" r:id="rId5" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="B6" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C6" r:id="rId6" display="1324" tooltip="http://oj.czos.cn/problem.php?id=1324"/>
-    <hyperlink ref="B7" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C7" r:id="rId7" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
-    <hyperlink ref="B8" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C8" r:id="rId8" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
-    <hyperlink ref="B9" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C9" r:id="rId9" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="B10" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C10" r:id="rId10" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B11" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C11" r:id="rId11" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="B12" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C12" r:id="rId12" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="B13" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C13" r:id="rId13" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B14" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C14" r:id="rId14" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B15" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C15" r:id="rId15" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="B16" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C16" r:id="rId16" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="B17" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C17" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B18" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C18" r:id="rId18" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="B19" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C19" r:id="rId19" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B20" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C20" r:id="rId20" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B21" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C21" r:id="rId21" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1049" display="1049" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1324" display="1324" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3811,7 +3649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153399</v>
       </c>
@@ -3834,13 +3672,13 @@
         <v>59</v>
       </c>
       <c r="H2" s="6">
-        <v>43806.5952662037</v>
+        <v>43806.595266203702</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="27.75" spans="1:9">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>153367</v>
       </c>
@@ -3863,13 +3701,13 @@
         <v>60</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.5915509259</v>
+        <v>43806.591550925899</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="27.75" spans="1:9">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>152522</v>
       </c>
@@ -3892,13 +3730,13 @@
         <v>61</v>
       </c>
       <c r="H4" s="6">
-        <v>43805.895775463</v>
+        <v>43805.895775463003</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="27.75" spans="1:9">
+    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>152518</v>
       </c>
@@ -3921,13 +3759,13 @@
         <v>62</v>
       </c>
       <c r="H5" s="11">
-        <v>43805.8920949074</v>
+        <v>43805.892094907402</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="27.75" spans="1:9">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>152512</v>
       </c>
@@ -3950,13 +3788,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="6">
-        <v>43805.8899768519</v>
+        <v>43805.889976851897</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="1:9">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>149468</v>
       </c>
@@ -3979,13 +3817,13 @@
         <v>64</v>
       </c>
       <c r="H7" s="11">
-        <v>43799.6409143519</v>
+        <v>43799.640914351898</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="27.75" spans="1:9">
+    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>149268</v>
       </c>
@@ -4014,7 +3852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="27.75" spans="1:9">
+    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>145247</v>
       </c>
@@ -4043,7 +3881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="27.75" spans="1:9">
+    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>135804</v>
       </c>
@@ -4072,7 +3910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="27.75" spans="1:9">
+    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>135773</v>
       </c>
@@ -4095,13 +3933,13 @@
         <v>68</v>
       </c>
       <c r="H11" s="11">
-        <v>43771.8271296296</v>
+        <v>43771.827129629601</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="27.75" spans="1:9">
+    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>135768</v>
       </c>
@@ -4124,13 +3962,13 @@
         <v>69</v>
       </c>
       <c r="H12" s="6">
-        <v>43771.8175810185</v>
+        <v>43771.817581018498</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="27.75" spans="1:9">
+    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>135500</v>
       </c>
@@ -4153,13 +3991,13 @@
         <v>53</v>
       </c>
       <c r="H13" s="11">
-        <v>43771.6375578704</v>
+        <v>43771.637557870403</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="27.75" spans="1:9">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>135453</v>
       </c>
@@ -4182,13 +4020,13 @@
         <v>40</v>
       </c>
       <c r="H14" s="6">
-        <v>43771.6252314815</v>
+        <v>43771.625231481499</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="27.75" spans="1:9">
+    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>134629</v>
       </c>
@@ -4211,13 +4049,13 @@
         <v>70</v>
       </c>
       <c r="H15" s="11">
-        <v>43770.8593518519</v>
+        <v>43770.859351851897</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="27.75" spans="1:9">
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>134613</v>
       </c>
@@ -4240,13 +4078,13 @@
         <v>71</v>
       </c>
       <c r="H16" s="6">
-        <v>43770.8466203704</v>
+        <v>43770.846620370401</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="27.75" spans="1:9">
+    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>134612</v>
       </c>
@@ -4269,13 +4107,13 @@
         <v>47</v>
       </c>
       <c r="H17" s="11">
-        <v>43770.8436921296</v>
+        <v>43770.843692129602</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="27.75" spans="1:9">
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>133052</v>
       </c>
@@ -4298,13 +4136,13 @@
         <v>72</v>
       </c>
       <c r="H18" s="6">
-        <v>43765.4810300926</v>
+        <v>43765.481030092596</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" ht="27.75" spans="1:9">
+    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>133046</v>
       </c>
@@ -4333,7 +4171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="27.75" spans="1:9">
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>133036</v>
       </c>
@@ -4362,7 +4200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:9">
+    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>132559</v>
       </c>
@@ -4385,72 +4223,71 @@
         <v>74</v>
       </c>
       <c r="H21" s="11">
-        <v>43764.6546990741</v>
+        <v>43764.654699074097</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C2" r:id="rId2" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B3" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C3" r:id="rId3" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B4" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C4" r:id="rId4" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
-    <hyperlink ref="B5" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C5" r:id="rId5" display="1301" tooltip="http://oj.czos.cn/problem.php?id=1301"/>
-    <hyperlink ref="B6" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C6" r:id="rId6" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
-    <hyperlink ref="B7" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C7" r:id="rId7" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="B8" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C8" r:id="rId8" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="B9" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C9" r:id="rId9" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B10" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C10" r:id="rId10" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="B11" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C11" r:id="rId11" display="1029" tooltip="http://oj.czos.cn/problem.php?id=1029"/>
-    <hyperlink ref="B12" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C12" r:id="rId12" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="B13" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C13" r:id="rId13" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B14" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C14" r:id="rId14" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B15" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C15" r:id="rId15" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="B16" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C16" r:id="rId16" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="B17" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C17" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B18" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C18" r:id="rId18" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="B19" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C19" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B20" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C20" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B21" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C21" r:id="rId19" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1301" display="1301" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1029" display="1029" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4479,7 +4316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153374</v>
       </c>
@@ -4502,13 +4339,13 @@
         <v>51</v>
       </c>
       <c r="H2" s="6">
-        <v>43806.5925115741</v>
+        <v>43806.592511574097</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="27.75" spans="1:9">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>153350</v>
       </c>
@@ -4531,13 +4368,13 @@
         <v>76</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.5892361111</v>
+        <v>43806.589236111096</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="27.75" spans="1:9">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>152584</v>
       </c>
@@ -4566,7 +4403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="27.75" spans="1:9">
+    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>152546</v>
       </c>
@@ -4589,13 +4426,13 @@
         <v>45</v>
       </c>
       <c r="H5" s="11">
-        <v>43805.9055671296</v>
+        <v>43805.905567129601</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="27.75" spans="1:9">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>152542</v>
       </c>
@@ -4618,13 +4455,13 @@
         <v>78</v>
       </c>
       <c r="H6" s="6">
-        <v>43805.9032060185</v>
+        <v>43805.903206018498</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="1:9">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>152527</v>
       </c>
@@ -4647,13 +4484,13 @@
         <v>79</v>
       </c>
       <c r="H7" s="11">
-        <v>43805.8983101852</v>
+        <v>43805.898310185199</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="27.75" spans="1:9">
+    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>152499</v>
       </c>
@@ -4676,13 +4513,13 @@
         <v>80</v>
       </c>
       <c r="H8" s="6">
-        <v>43805.8741666667</v>
+        <v>43805.874166666697</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="27.75" spans="1:9">
+    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>152414</v>
       </c>
@@ -4705,13 +4542,13 @@
         <v>81</v>
       </c>
       <c r="H9" s="11">
-        <v>43805.7949189815</v>
+        <v>43805.794918981497</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="27.75" spans="1:9">
+    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>148319</v>
       </c>
@@ -4740,7 +4577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="27.75" spans="1:9">
+    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>148302</v>
       </c>
@@ -4769,7 +4606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="27.75" spans="1:9">
+    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>147930</v>
       </c>
@@ -4792,13 +4629,13 @@
         <v>83</v>
       </c>
       <c r="H12" s="6">
-        <v>43797.8188888889</v>
+        <v>43797.818888888898</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="27.75" spans="1:9">
+    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>147929</v>
       </c>
@@ -4821,13 +4658,13 @@
         <v>63</v>
       </c>
       <c r="H13" s="11">
-        <v>43797.8154861111</v>
+        <v>43797.815486111103</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" ht="27.75" spans="1:9">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>147927</v>
       </c>
@@ -4850,13 +4687,13 @@
         <v>84</v>
       </c>
       <c r="H14" s="6">
-        <v>43797.8136458333</v>
+        <v>43797.813645833303</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="27.75" spans="1:9">
+    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>145218</v>
       </c>
@@ -4879,13 +4716,13 @@
         <v>85</v>
       </c>
       <c r="H15" s="11">
-        <v>43792.6243055556</v>
+        <v>43792.624305555597</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="27.75" spans="1:9">
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>139011</v>
       </c>
@@ -4914,7 +4751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="27.75" spans="1:9">
+    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>137571</v>
       </c>
@@ -4937,13 +4774,13 @@
         <v>50</v>
       </c>
       <c r="H17" s="11">
-        <v>43776.8765393519</v>
+        <v>43776.876539351899</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="27.75" spans="1:9">
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>135476</v>
       </c>
@@ -4972,7 +4809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" ht="27.75" spans="1:9">
+    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>135416</v>
       </c>
@@ -4995,13 +4832,13 @@
         <v>87</v>
       </c>
       <c r="H19" s="11">
-        <v>43771.6216319444</v>
+        <v>43771.621631944399</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="27.75" spans="1:9">
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>134670</v>
       </c>
@@ -5024,13 +4861,13 @@
         <v>88</v>
       </c>
       <c r="H20" s="6">
-        <v>43770.8851388889</v>
+        <v>43770.885138888902</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:9">
+    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>134660</v>
       </c>
@@ -5053,72 +4890,71 @@
         <v>89</v>
       </c>
       <c r="H21" s="11">
-        <v>43770.8781365741</v>
+        <v>43770.878136574102</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C2" r:id="rId2" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B3" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C3" r:id="rId3" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B4" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C4" r:id="rId4" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
-    <hyperlink ref="B5" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C5" r:id="rId5" display="1039" tooltip="http://oj.czos.cn/problem.php?id=1039"/>
-    <hyperlink ref="B6" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C6" r:id="rId6" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="B7" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C7" r:id="rId7" display="1305" tooltip="http://oj.czos.cn/problem.php?id=1305"/>
-    <hyperlink ref="B8" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C8" r:id="rId8" display="1035" tooltip="http://oj.czos.cn/problem.php?id=1035"/>
-    <hyperlink ref="B9" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C9" r:id="rId9" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="B10" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C10" r:id="rId10" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
-    <hyperlink ref="B11" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C11" r:id="rId11" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="B12" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C12" r:id="rId12" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
-    <hyperlink ref="B13" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C13" r:id="rId13" display="1033" tooltip="http://oj.czos.cn/problem.php?id=1033"/>
-    <hyperlink ref="B14" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C14" r:id="rId14" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
-    <hyperlink ref="B15" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C15" r:id="rId15" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B16" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C16" r:id="rId16" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="B17" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C17" r:id="rId17" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="B18" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C18" r:id="rId18" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B19" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C19" r:id="rId19" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B20" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C20" r:id="rId20" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="B21" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C21" r:id="rId21" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1039" display="1039" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1305" display="1305" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1035" display="1035" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1033" display="1033" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5147,7 +4983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>134660</v>
       </c>
@@ -5170,13 +5006,13 @@
         <v>89</v>
       </c>
       <c r="H2" s="6">
-        <v>43770.8781365741</v>
+        <v>43770.878136574102</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="27.75" spans="1:9">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>134638</v>
       </c>
@@ -5205,7 +5041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="27.75" spans="1:9">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>134407</v>
       </c>
@@ -5228,13 +5064,13 @@
         <v>91</v>
       </c>
       <c r="H4" s="6">
-        <v>43769.8903703704</v>
+        <v>43769.890370370398</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="27.75" spans="1:9">
+    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>132541</v>
       </c>
@@ -5257,13 +5093,13 @@
         <v>34</v>
       </c>
       <c r="H5" s="11">
-        <v>43764.6371527778</v>
+        <v>43764.637152777803</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:9">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>131542</v>
       </c>
@@ -5286,42 +5122,41 @@
         <v>92</v>
       </c>
       <c r="H6" s="6">
-        <v>43763.7349074074</v>
+        <v>43763.734907407401</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C2" r:id="rId2" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="B3" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C3" r:id="rId3" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B4" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C4" r:id="rId4" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
-    <hyperlink ref="B5" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C5" r:id="rId5" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="B6" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C6" r:id="rId6" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5350,7 +5185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153378</v>
       </c>
@@ -5373,13 +5208,13 @@
         <v>94</v>
       </c>
       <c r="H2" s="6">
-        <v>43806.5929050926</v>
+        <v>43806.592905092599</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="27.75" spans="1:9">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>145260</v>
       </c>
@@ -5402,13 +5237,13 @@
         <v>95</v>
       </c>
       <c r="H3" s="11">
-        <v>43792.6356018518</v>
+        <v>43792.635601851798</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="27.75" spans="1:9">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>135498</v>
       </c>
@@ -5431,13 +5266,13 @@
         <v>87</v>
       </c>
       <c r="H4" s="6">
-        <v>43771.6356481481</v>
+        <v>43771.635648148098</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="27.75" spans="1:9">
+    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>135484</v>
       </c>
@@ -5460,13 +5295,13 @@
         <v>96</v>
       </c>
       <c r="H5" s="11">
-        <v>43771.6314467593</v>
+        <v>43771.631446759297</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="27.75" spans="1:9">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>135251</v>
       </c>
@@ -5489,13 +5324,13 @@
         <v>95</v>
       </c>
       <c r="H6" s="6">
-        <v>43771.5733101852</v>
+        <v>43771.573310185202</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="1:9">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>132550</v>
       </c>
@@ -5518,13 +5353,13 @@
         <v>86</v>
       </c>
       <c r="H7" s="11">
-        <v>43764.6412847222</v>
+        <v>43764.641284722202</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="27.75" spans="1:9">
+    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>132429</v>
       </c>
@@ -5547,13 +5382,13 @@
         <v>94</v>
       </c>
       <c r="H8" s="6">
-        <v>43764.6170138889</v>
+        <v>43764.617013888899</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="27.75" spans="1:9">
+    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>132393</v>
       </c>
@@ -5576,13 +5411,13 @@
         <v>94</v>
       </c>
       <c r="H9" s="11">
-        <v>43764.610775463</v>
+        <v>43764.610775462999</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="27.75" spans="1:9">
+    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>129397</v>
       </c>
@@ -5605,13 +5440,13 @@
         <v>97</v>
       </c>
       <c r="H10" s="6">
-        <v>43757.6631134259</v>
+        <v>43757.663113425901</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="27.75" spans="1:9">
+    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>129344</v>
       </c>
@@ -5634,13 +5469,13 @@
         <v>98</v>
       </c>
       <c r="H11" s="11">
-        <v>43757.6340856481</v>
+        <v>43757.634085648097</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="27.75" spans="1:9">
+    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>129232</v>
       </c>
@@ -5663,13 +5498,13 @@
         <v>74</v>
       </c>
       <c r="H12" s="6">
-        <v>43757.6207175926</v>
+        <v>43757.620717592603</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:9">
+    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>129156</v>
       </c>
@@ -5692,56 +5527,55 @@
         <v>99</v>
       </c>
       <c r="H13" s="11">
-        <v>43757.6002083333</v>
+        <v>43757.600208333301</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="B3" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C3" r:id="rId3" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B4" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C4" r:id="rId4" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B5" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C5" r:id="rId5" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B6" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C6" r:id="rId6" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B7" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C7" r:id="rId7" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="B8" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C8" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B9" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C9" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B10" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C10" r:id="rId9" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B11" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C11" r:id="rId10" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="B12" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C12" r:id="rId11" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B13" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C13" r:id="rId12" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5770,7 +5604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153378</v>
       </c>
@@ -5793,13 +5627,13 @@
         <v>94</v>
       </c>
       <c r="H2" s="6">
-        <v>43806.5929050926</v>
+        <v>43806.592905092599</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="27.75" spans="1:9">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>145260</v>
       </c>
@@ -5822,13 +5656,13 @@
         <v>95</v>
       </c>
       <c r="H3" s="11">
-        <v>43792.6356018518</v>
+        <v>43792.635601851798</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="27.75" spans="1:9">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>135498</v>
       </c>
@@ -5851,13 +5685,13 @@
         <v>87</v>
       </c>
       <c r="H4" s="6">
-        <v>43771.6356481481</v>
+        <v>43771.635648148098</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="27.75" spans="1:9">
+    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>135484</v>
       </c>
@@ -5880,13 +5714,13 @@
         <v>96</v>
       </c>
       <c r="H5" s="11">
-        <v>43771.6314467593</v>
+        <v>43771.631446759297</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="27.75" spans="1:9">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>135251</v>
       </c>
@@ -5909,13 +5743,13 @@
         <v>95</v>
       </c>
       <c r="H6" s="6">
-        <v>43771.5733101852</v>
+        <v>43771.573310185202</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="1:9">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>132550</v>
       </c>
@@ -5938,13 +5772,13 @@
         <v>86</v>
       </c>
       <c r="H7" s="11">
-        <v>43764.6412847222</v>
+        <v>43764.641284722202</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="27.75" spans="1:9">
+    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>132429</v>
       </c>
@@ -5967,13 +5801,13 @@
         <v>94</v>
       </c>
       <c r="H8" s="6">
-        <v>43764.6170138889</v>
+        <v>43764.617013888899</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="27.75" spans="1:9">
+    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>132393</v>
       </c>
@@ -5996,13 +5830,13 @@
         <v>94</v>
       </c>
       <c r="H9" s="11">
-        <v>43764.610775463</v>
+        <v>43764.610775462999</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="27.75" spans="1:9">
+    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>129397</v>
       </c>
@@ -6025,13 +5859,13 @@
         <v>97</v>
       </c>
       <c r="H10" s="6">
-        <v>43757.6631134259</v>
+        <v>43757.663113425901</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="27.75" spans="1:9">
+    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>129344</v>
       </c>
@@ -6054,13 +5888,13 @@
         <v>98</v>
       </c>
       <c r="H11" s="11">
-        <v>43757.6340856481</v>
+        <v>43757.634085648097</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="27.75" spans="1:9">
+    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>129232</v>
       </c>
@@ -6083,13 +5917,13 @@
         <v>74</v>
       </c>
       <c r="H12" s="6">
-        <v>43757.6207175926</v>
+        <v>43757.620717592603</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:9">
+    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>129156</v>
       </c>
@@ -6112,40 +5946,40 @@
         <v>99</v>
       </c>
       <c r="H13" s="11">
-        <v>43757.6002083333</v>
+        <v>43757.600208333301</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="B3" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C3" r:id="rId3" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B4" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C4" r:id="rId4" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B5" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C5" r:id="rId5" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B6" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C6" r:id="rId6" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B7" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C7" r:id="rId7" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="B8" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C8" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B9" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C9" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B10" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C10" r:id="rId9" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B11" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C11" r:id="rId10" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="B12" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C12" r:id="rId11" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B13" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C13" r:id="rId12" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/作业情况.xlsx
+++ b/作业情况.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05Code\06CPP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5EC31A-1824-4508-8231-42C5C6FA33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15220" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,20 +16,15 @@
     <sheet name="Sheet8" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet9" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+  <si>
+    <t>课堂</t>
+  </si>
   <si>
     <t>题号</t>
   </si>
@@ -70,6 +59,27 @@
     <t>张孙和奥问题</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>运行编号</t>
   </si>
   <si>
@@ -101,6 +111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>正确</t>
     </r>
     <r>
@@ -108,7 +124,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> </t>
     </r>
@@ -117,7 +133,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>¥</t>
     </r>
@@ -126,7 +142,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -364,52 +380,19 @@
   </si>
   <si>
     <t>140 B</t>
-  </si>
-  <si>
-    <t>课堂</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,29 +405,36 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF4183C4"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -457,28 +447,164 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +635,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -536,13 +848,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,9 +1115,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -576,57 +1127,80 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -884,73 +1458,74 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="A1:G33"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="A1:G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.21875" customWidth="1"/>
-    <col min="10" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77884615384615" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.10576923076923" style="13" customWidth="1"/>
+    <col min="3" max="6" width="7.88461538461539" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="9" width="3.22115384615385" customWidth="1"/>
+    <col min="10" max="13" width="12.3365384615385" customWidth="1"/>
+    <col min="14" max="14" width="14.6634615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>100</v>
+    <row r="1" ht="17.55" spans="1:14">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="N1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="18.3" spans="1:14">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="13">
         <v>1000</v>
       </c>
       <c r="C2">
@@ -989,11 +1564,11 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="12">
+    <row r="3" ht="17.55" spans="1:14">
+      <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13">
         <v>1320</v>
       </c>
       <c r="C3">
@@ -1016,27 +1591,27 @@
         <f t="shared" ref="G3:G33" si="3">VLOOKUP(B3,N:N,1,0)</f>
         <v>1320</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>1045</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>1049</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>1416</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>1317</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>1303</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="12">
+    <row r="4" ht="17.55" spans="1:14">
+      <c r="A4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13">
         <v>1416</v>
       </c>
       <c r="C4">
@@ -1075,11 +1650,11 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="12">
+    <row r="5" ht="17.55" spans="1:14">
+      <c r="A5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13">
         <v>1417</v>
       </c>
       <c r="C5">
@@ -1102,27 +1677,27 @@
         <f t="shared" si="3"/>
         <v>1417</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>1037</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>1304</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>1301</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>1039</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>1027</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="12">
+    <row r="6" ht="17.55" spans="1:14">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13">
         <v>1005</v>
       </c>
       <c r="C6">
@@ -1161,11 +1736,11 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="12">
+    <row r="7" ht="17.55" spans="1:14">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13">
         <v>1031</v>
       </c>
       <c r="C7">
@@ -1188,27 +1763,27 @@
         <f t="shared" si="3"/>
         <v>1031</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>1303</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>1030</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>1044</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>1305</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>1005</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="12">
+    <row r="8" ht="17.55" spans="1:14">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
         <v>1317</v>
       </c>
       <c r="C8">
@@ -1247,11 +1822,11 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="12">
+    <row r="9" ht="17.55" spans="1:14">
+      <c r="A9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13">
         <v>1329</v>
       </c>
       <c r="C9">
@@ -1274,27 +1849,27 @@
         <f t="shared" si="3"/>
         <v>1329</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>1028</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>1043</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>1303</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>1304</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>1317</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="12">
+    <row r="10" ht="17.55" spans="1:14">
+      <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="13">
         <v>1337</v>
       </c>
       <c r="C10">
@@ -1333,11 +1908,11 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="12">
+    <row r="11" ht="17.55" spans="1:14">
+      <c r="A11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="13">
         <v>1338</v>
       </c>
       <c r="C11">
@@ -1360,27 +1935,27 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>1337</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>1109</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>1029</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>1043</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="12">
+    <row r="12" ht="17.55" spans="1:14">
+      <c r="A12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13">
         <v>1027</v>
       </c>
       <c r="C12">
@@ -1419,11 +1994,11 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="12">
+    <row r="13" ht="17.55" spans="1:14">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="13">
         <v>1109</v>
       </c>
       <c r="C13">
@@ -1446,27 +2021,27 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>1329</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>1028</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>1028</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>1033</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="12">
+    <row r="14" ht="17.55" spans="1:14">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13">
         <v>1390</v>
       </c>
       <c r="C14">
@@ -1505,11 +2080,11 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="12">
+    <row r="15" ht="17.55" spans="1:14">
+      <c r="A15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="13">
         <v>1030</v>
       </c>
       <c r="C15">
@@ -1532,27 +2107,27 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>1317</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>1337</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>1337</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>1303</v>
       </c>
       <c r="N15">
         <v>1033</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="12">
+    <row r="16" spans="1:14">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13">
         <v>1033</v>
       </c>
       <c r="C16">
@@ -1563,9 +2138,9 @@
         <f>VLOOKUP(B16,K:K,1,0)</f>
         <v>1033</v>
       </c>
-      <c r="E16" t="e">
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1033</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
@@ -1587,12 +2162,15 @@
       <c r="M16" s="4">
         <v>1109</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="N16">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
         <v>1034</v>
       </c>
       <c r="C17">
@@ -1603,9 +2181,9 @@
         <f>VLOOKUP(B17,K:K,1,0)</f>
         <v>1034</v>
       </c>
-      <c r="E17" t="e">
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1034</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -1615,24 +2193,27 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>1320</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>1329</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>1329</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>1390</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="12">
+      <c r="N17">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13">
         <v>1037</v>
       </c>
       <c r="C18">
@@ -1643,9 +2224,9 @@
         <f>VLOOKUP(B18,K:K,1,0)</f>
         <v>1037</v>
       </c>
-      <c r="E18" t="e">
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1037</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
@@ -1667,12 +2248,15 @@
       <c r="M18" s="4">
         <v>1028</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="N18">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="13">
         <v>1043</v>
       </c>
       <c r="C19">
@@ -1683,9 +2267,9 @@
         <f>VLOOKUP(B19,K:K,1,0)</f>
         <v>1043</v>
       </c>
-      <c r="E19" t="e">
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1043</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -1695,24 +2279,27 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>1000</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>1317</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>1329</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>1027</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="12">
+      <c r="N19">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="13">
         <v>1045</v>
       </c>
       <c r="C20">
@@ -1723,9 +2310,9 @@
         <f>VLOOKUP(B20,K:K,1,0)</f>
         <v>1045</v>
       </c>
-      <c r="E20" t="e">
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1045</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
@@ -1747,12 +2334,15 @@
       <c r="M20" s="4">
         <v>1338</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="N20">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="13">
         <v>1302</v>
       </c>
       <c r="C21">
@@ -1778,21 +2368,24 @@
       <c r="J21">
         <v>1109</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>1320</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>1000</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>1337</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="N21">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="13">
         <v>1303</v>
       </c>
       <c r="C22">
@@ -1827,12 +2420,15 @@
       <c r="M22" s="4">
         <v>1337</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="N22">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="13">
         <v>1309</v>
       </c>
       <c r="C23">
@@ -1843,9 +2439,9 @@
         <f>VLOOKUP(B23,K:K,1,0)</f>
         <v>1309</v>
       </c>
-      <c r="E23" t="e">
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1309</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
@@ -1864,32 +2460,35 @@
       <c r="L23">
         <v>1317</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>1329</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="N23">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="13">
         <v>1324</v>
       </c>
-      <c r="C24" t="e">
+      <c r="C24">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1324</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(B24,K:K,1,0)</f>
         <v>1324</v>
       </c>
-      <c r="E24" t="e">
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" t="e">
+        <v>1324</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1324</v>
       </c>
       <c r="G24" t="e">
         <f t="shared" si="3"/>
@@ -1907,17 +2506,20 @@
       <c r="M24" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="N24">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="13">
         <v>1035</v>
       </c>
-      <c r="C25" t="e">
+      <c r="C25">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1035</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(B25,K:K,1,0)</f>
@@ -1931,9 +2533,9 @@
         <f t="shared" si="2"/>
         <v>1035</v>
       </c>
-      <c r="G25" t="e">
+      <c r="G25">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1035</v>
       </c>
       <c r="J25">
         <v>1302</v>
@@ -1944,20 +2546,23 @@
       <c r="L25">
         <v>1030</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>1031</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="12">
+      <c r="N25">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="13">
         <v>1039</v>
       </c>
-      <c r="C26" t="e">
+      <c r="C26">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1039</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(B26,K:K,1,0)</f>
@@ -1971,9 +2576,9 @@
         <f t="shared" si="2"/>
         <v>1039</v>
       </c>
-      <c r="G26" t="e">
+      <c r="G26">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1039</v>
       </c>
       <c r="J26">
         <v>1309</v>
@@ -1981,15 +2586,18 @@
       <c r="K26">
         <v>1045</v>
       </c>
+      <c r="L26">
+        <v>1299</v>
+      </c>
       <c r="M26" s="4">
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="12">
+    <row r="27" spans="1:13">
+      <c r="A27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="13">
         <v>1044</v>
       </c>
       <c r="C27">
@@ -2008,27 +2616,33 @@
         <f t="shared" si="2"/>
         <v>1044</v>
       </c>
-      <c r="G27" t="e">
+      <c r="G27">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1044</v>
+      </c>
+      <c r="J27">
+        <v>1324</v>
       </c>
       <c r="K27">
         <v>1302</v>
       </c>
+      <c r="L27">
+        <v>1310</v>
+      </c>
       <c r="M27">
         <v>1320</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="12">
+    <row r="28" spans="1:13">
+      <c r="A28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="13">
         <v>1049</v>
       </c>
-      <c r="C28" t="e">
+      <c r="C28">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1049</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(B28,K:K,1,0)</f>
@@ -2042,27 +2656,33 @@
         <f t="shared" si="2"/>
         <v>1049</v>
       </c>
-      <c r="G28" t="e">
+      <c r="G28">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1049</v>
+      </c>
+      <c r="J28">
+        <v>1035</v>
       </c>
       <c r="K28">
         <v>1309</v>
       </c>
+      <c r="L28">
+        <v>1309</v>
+      </c>
       <c r="M28">
         <v>1005</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="12">
+    <row r="29" spans="1:13">
+      <c r="A29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="13">
         <v>1300</v>
       </c>
-      <c r="C29" t="e">
+      <c r="C29">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1300</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(B29,K:K,1,0)</f>
@@ -2076,22 +2696,28 @@
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="G29" t="e">
+      <c r="G29">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1300</v>
+      </c>
+      <c r="J29">
+        <v>1039</v>
       </c>
       <c r="K29">
         <v>1035</v>
       </c>
+      <c r="L29">
+        <v>1305</v>
+      </c>
       <c r="M29">
         <v>1037</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="12">
+    <row r="30" spans="1:13">
+      <c r="A30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="13">
         <v>1304</v>
       </c>
       <c r="C30">
@@ -2110,61 +2736,73 @@
         <f t="shared" si="2"/>
         <v>1304</v>
       </c>
-      <c r="G30" t="e">
+      <c r="G30">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1304</v>
+      </c>
+      <c r="J30">
+        <v>1049</v>
       </c>
       <c r="K30">
         <v>1039</v>
       </c>
+      <c r="L30">
+        <v>1033</v>
+      </c>
       <c r="M30">
         <v>1049</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="12">
+    <row r="31" spans="1:13">
+      <c r="A31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="13">
         <v>1305</v>
       </c>
-      <c r="C31" t="e">
+      <c r="C31">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1305</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(B31,K:K,1,0)</f>
         <v>1305</v>
       </c>
-      <c r="E31" t="e">
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1305</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
         <v>1305</v>
       </c>
-      <c r="G31" t="e">
+      <c r="G31">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1305</v>
+      </c>
+      <c r="J31">
+        <v>1300</v>
       </c>
       <c r="K31">
         <v>1391</v>
       </c>
+      <c r="L31">
+        <v>1034</v>
+      </c>
       <c r="M31">
         <v>1309</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="12">
+    <row r="32" spans="1:13">
+      <c r="A32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="13">
         <v>1322</v>
       </c>
-      <c r="C32" t="e">
+      <c r="C32">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1322</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(B32,K:K,1,0)</f>
@@ -2174,31 +2812,37 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F32" t="e">
+      <c r="F32">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" t="e">
+        <v>1322</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1322</v>
+      </c>
+      <c r="J32">
+        <v>1305</v>
       </c>
       <c r="K32">
         <v>1322</v>
       </c>
+      <c r="L32">
+        <v>1037</v>
+      </c>
       <c r="M32">
         <v>1045</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="12">
+    <row r="33" spans="1:13">
+      <c r="A33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="13">
         <v>1391</v>
       </c>
-      <c r="C33" t="e">
+      <c r="C33">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1391</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(B33,K:K,1,0)</f>
@@ -2212,185 +2856,808 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G33" t="e">
+      <c r="G33">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1391</v>
+      </c>
+      <c r="J33">
+        <v>1419</v>
       </c>
       <c r="K33">
         <v>1305</v>
       </c>
+      <c r="L33">
+        <v>1043</v>
+      </c>
       <c r="M33">
         <v>1301</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
+      <c r="A34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1299</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" ref="C34:C53" si="5">VLOOKUP(B34,J:J,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D53" si="6">VLOOKUP(B34,K:K,1,0)</f>
+        <v>1299</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E53" si="7">VLOOKUP(B34,L:L,1,0)</f>
+        <v>1299</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F53" si="8">VLOOKUP(B34,M:M,1,0)</f>
+        <v>1299</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G53" si="9">VLOOKUP(B34,N:N,1,0)</f>
+        <v>1299</v>
+      </c>
+      <c r="J34">
+        <v>1305</v>
+      </c>
       <c r="K34">
         <v>1300</v>
       </c>
+      <c r="L34">
+        <v>1045</v>
+      </c>
       <c r="M34">
         <v>1037</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
+      <c r="A35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1310</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>1310</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>1310</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>1310</v>
+      </c>
+      <c r="G35" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J35">
+        <v>1391</v>
+      </c>
+      <c r="K35">
+        <v>1299</v>
+      </c>
+      <c r="L35">
+        <v>1324</v>
+      </c>
       <c r="M35">
         <v>1320</v>
       </c>
     </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1039</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>1039</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>1039</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
+        <v>1039</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="9"/>
+        <v>1039</v>
+      </c>
+      <c r="J36">
+        <v>1322</v>
+      </c>
+      <c r="K36">
+        <v>1310</v>
+      </c>
+      <c r="L36">
+        <v>1056</v>
+      </c>
+      <c r="M36">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1419</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>1419</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>1419</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F37" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J37">
+        <v>1056</v>
+      </c>
+      <c r="K37">
+        <v>1419</v>
+      </c>
+      <c r="M37">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1040</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>1040</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F38" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K38">
+        <v>1040</v>
+      </c>
+      <c r="M38">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1042</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D39" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F39" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K39">
+        <v>1041</v>
+      </c>
+      <c r="M39">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1041</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>1041</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F40" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K40">
+        <v>1056</v>
+      </c>
+      <c r="M40">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1018</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D41" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F41" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G41" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M41">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1004</v>
+      </c>
+      <c r="C42" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D42" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E42" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F42" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G42" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M42">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1056</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>1056</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>1056</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>1056</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>1056</v>
+      </c>
+      <c r="G43" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1059</v>
+      </c>
+      <c r="C44" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E44" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F44" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G44" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1055</v>
+      </c>
+      <c r="C45" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D45" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F45" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1014</v>
+      </c>
+      <c r="C46" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E46" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F46" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G46" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1058</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F47" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G47" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1054</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D48" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E48" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F48" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G48" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1003</v>
+      </c>
+      <c r="C49" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D49" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E49" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F49" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G49" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1002</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D50" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F50" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1053</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D51" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E51" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F51" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G51" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1021</v>
+      </c>
+      <c r="C52" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D52" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1085</v>
+      </c>
+      <c r="C53" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D53" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1045" display="1045" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J5" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1037" display="1037" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J6" r:id="rId5" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J7" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J8" r:id="rId7" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J9" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J10" r:id="rId9" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J11" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J12" r:id="rId11" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J13" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J14" r:id="rId13" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J15" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J16" r:id="rId15" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J17" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J18" r:id="rId17" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J19" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K2" r:id="rId19" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K3" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1049" display="1049" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K4" r:id="rId21" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K5" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K6" r:id="rId23" tooltip="http://oj.czos.cn/problem.php?id=1324" display="1324" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K7" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K8" r:id="rId25" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K9" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K10" r:id="rId27" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K11" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K12" r:id="rId29" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K13" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K14" r:id="rId31" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K15" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K16" r:id="rId33" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K17" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K18" r:id="rId35" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K20" r:id="rId37" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K21" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L2" r:id="rId39" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L3" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="L4" r:id="rId41" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L5" r:id="rId42" tooltip="http://oj.czos.cn/problem.php?id=1301" display="1301" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L6" r:id="rId43" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="L7" r:id="rId44" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="L8" r:id="rId45" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="L9" r:id="rId46" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L10" r:id="rId47" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L11" r:id="rId48" tooltip="http://oj.czos.cn/problem.php?id=1029" display="1029" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L12" r:id="rId49" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L13" r:id="rId50" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="L14" r:id="rId51" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="L15" r:id="rId52" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="L16" r:id="rId53" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L17" r:id="rId54" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="L18" r:id="rId55" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="L19" r:id="rId56" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="L20" r:id="rId57" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="L21" r:id="rId58" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M2" r:id="rId59" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M3" r:id="rId60" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M4" r:id="rId61" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M5" r:id="rId62" tooltip="http://oj.czos.cn/problem.php?id=1039" display="1039" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="M6" r:id="rId63" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M7" r:id="rId64" tooltip="http://oj.czos.cn/problem.php?id=1305" display="1305" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="M8" r:id="rId65" tooltip="http://oj.czos.cn/problem.php?id=1035" display="1035" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M9" r:id="rId66" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M10" r:id="rId67" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M11" r:id="rId68" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="M12" r:id="rId69" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="M13" r:id="rId70" tooltip="http://oj.czos.cn/problem.php?id=1033" display="1033" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="M14" r:id="rId71" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="M15" r:id="rId72" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="M16" r:id="rId73" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="M17" r:id="rId74" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M18" r:id="rId75" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="M19" r:id="rId76" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="M20" r:id="rId77" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="M21" r:id="rId78" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="M22" r:id="rId79" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="M23" r:id="rId80" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="M24" r:id="rId81" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="M25" r:id="rId82" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="M26" r:id="rId83" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="N2" r:id="rId84" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="N3" r:id="rId85" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="N4" r:id="rId86" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="N5" r:id="rId87" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="N6" r:id="rId88" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="N7" r:id="rId89" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="N8" r:id="rId90" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="N9" r:id="rId91" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="N10" r:id="rId92" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="N11" r:id="rId93" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="N12" r:id="rId94" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="N13" r:id="rId95" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J2" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
+    <hyperlink ref="J3" r:id="rId2" display="1045" tooltip="http://oj.czos.cn/problem.php?id=1045"/>
+    <hyperlink ref="J4" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
+    <hyperlink ref="J5" r:id="rId4" display="1037" tooltip="http://oj.czos.cn/problem.php?id=1037"/>
+    <hyperlink ref="J6" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
+    <hyperlink ref="J7" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="J8" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
+    <hyperlink ref="J9" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="J10" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="J11" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="J12" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
+    <hyperlink ref="J13" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="J14" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
+    <hyperlink ref="J15" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="J16" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="J17" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="J18" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="J19" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="K2" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
+    <hyperlink ref="K3" r:id="rId20" display="1049" tooltip="http://oj.czos.cn/problem.php?id=1049"/>
+    <hyperlink ref="K4" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
+    <hyperlink ref="K5" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
+    <hyperlink ref="K6" r:id="rId21" display="1324" tooltip="http://oj.czos.cn/problem.php?id=1324"/>
+    <hyperlink ref="K7" r:id="rId22" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
+    <hyperlink ref="K8" r:id="rId23" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
+    <hyperlink ref="K9" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
+    <hyperlink ref="K10" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="K11" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
+    <hyperlink ref="K12" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
+    <hyperlink ref="K13" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="K14" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="K15" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="K16" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
+    <hyperlink ref="K17" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="K18" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
+    <hyperlink ref="K19" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="K20" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="K21" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="L2" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="L3" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="L4" r:id="rId25" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
+    <hyperlink ref="L5" r:id="rId26" display="1301" tooltip="http://oj.czos.cn/problem.php?id=1301"/>
+    <hyperlink ref="L6" r:id="rId27" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
+    <hyperlink ref="L7" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
+    <hyperlink ref="L8" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
+    <hyperlink ref="L9" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="L10" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
+    <hyperlink ref="L11" r:id="rId28" display="1029" tooltip="http://oj.czos.cn/problem.php?id=1029"/>
+    <hyperlink ref="L12" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
+    <hyperlink ref="L13" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="L14" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="L15" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="L16" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
+    <hyperlink ref="L17" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="L18" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="L19" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="L20" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="L21" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="M2" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="M3" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="M4" r:id="rId25" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
+    <hyperlink ref="M5" r:id="rId29" display="1039" tooltip="http://oj.czos.cn/problem.php?id=1039"/>
+    <hyperlink ref="M6" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
+    <hyperlink ref="M7" r:id="rId30" display="1305" tooltip="http://oj.czos.cn/problem.php?id=1305"/>
+    <hyperlink ref="M8" r:id="rId31" display="1035" tooltip="http://oj.czos.cn/problem.php?id=1035"/>
+    <hyperlink ref="M9" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
+    <hyperlink ref="M10" r:id="rId22" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
+    <hyperlink ref="M11" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
+    <hyperlink ref="M12" r:id="rId27" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
+    <hyperlink ref="M13" r:id="rId32" display="1033" tooltip="http://oj.czos.cn/problem.php?id=1033"/>
+    <hyperlink ref="M14" r:id="rId23" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
+    <hyperlink ref="M15" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="M16" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
+    <hyperlink ref="M17" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
+    <hyperlink ref="M18" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="M19" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="M20" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
+    <hyperlink ref="M21" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="M22" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="M23" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="M24" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="M25" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
+    <hyperlink ref="M26" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="N2" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
+    <hyperlink ref="N3" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="N4" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="N5" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="N6" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="N7" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
+    <hyperlink ref="N8" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="N9" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="N10" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="N11" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="N12" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="N13" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="17.55" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="27.5" spans="1:9">
       <c r="A2" s="2">
         <v>149455</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4">
         <v>1044</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -2399,56 +3666,56 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6">
-        <v>43799.635277777801</v>
+        <v>30</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43799.6352777778</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="26.75" spans="1:9">
+      <c r="A3" s="6">
         <v>149273</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8">
         <v>1045</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>24</v>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H3" s="11">
-        <v>43799.602222222202</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43799.6022222222</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="26.75" spans="1:9">
       <c r="A4" s="2">
         <v>149232</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>1304</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -2457,56 +3724,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43799.595381944397</v>
+        <v>33</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43799.5953819444</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="26.75" spans="1:9">
+      <c r="A5" s="6">
         <v>148045</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8">
         <v>1037</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H5" s="11">
-        <v>43797.904027777797</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43797.9040277778</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="26.75" spans="1:9">
       <c r="A6" s="2">
         <v>148033</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4">
         <v>1043</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -2515,56 +3782,56 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43797.897291666697</v>
+        <v>35</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43797.8972916667</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="26.75" spans="1:9">
+      <c r="A7" s="6">
         <v>145232</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8">
         <v>1303</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H7" s="11">
-        <v>43792.628067129597</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43792.6280671296</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="26.75" spans="1:9">
       <c r="A8" s="2">
         <v>135514</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
         <v>1390</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -2573,56 +3840,56 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10">
+        <v>43771.6423263889</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="26.75" spans="1:9">
+      <c r="A9" s="6">
+        <v>135450</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6">
-        <v>43771.642326388901</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>135450</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1028</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>29</v>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="11">
-        <v>43771.624988425901</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43771.6249884259</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="26.75" spans="1:9">
       <c r="A10" s="2">
         <v>135387</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <v>1027</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -2631,56 +3898,56 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="6">
-        <v>43771.616597222201</v>
+        <v>38</v>
+      </c>
+      <c r="H10" s="10">
+        <v>43771.6165972222</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="26.75" spans="1:9">
+      <c r="A11" s="6">
         <v>132953</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8">
         <v>1337</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>24</v>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="11">
-        <v>43765.419699074097</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43765.4196990741</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="26.75" spans="1:9">
       <c r="A12" s="2">
         <v>132801</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4">
         <v>1338</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -2689,56 +3956,56 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="6">
-        <v>43764.877847222197</v>
+        <v>39</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43764.8778472222</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="26.75" spans="1:9">
+      <c r="A13" s="6">
         <v>132788</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8">
         <v>1329</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>32</v>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="11">
-        <v>43764.868240740703</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43764.8682407407</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="26.75" spans="1:9">
       <c r="A14" s="2">
         <v>132531</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4">
         <v>1005</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2">
         <v>1544</v>
@@ -2747,56 +4014,56 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="6">
+        <v>41</v>
+      </c>
+      <c r="H14" s="10">
         <v>43764.6341203704</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="26.75" spans="1:9">
+      <c r="A15" s="6">
         <v>132330</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8">
         <v>1317</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>34</v>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H15" s="11">
-        <v>43764.601238425901</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43764.6012384259</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="26.75" spans="1:9">
       <c r="A16" s="2">
         <v>131664</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4">
         <v>1417</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
         <v>1544</v>
@@ -2805,56 +4072,56 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="6">
-        <v>43763.890208333301</v>
+        <v>43</v>
+      </c>
+      <c r="H16" s="10">
+        <v>43763.8902083333</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="26.75" spans="1:9">
+      <c r="A17" s="6">
         <v>129354</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8">
         <v>1320</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>36</v>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="H17" s="11">
-        <v>43757.637395833299</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43757.6373958333</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="26.75" spans="1:9">
       <c r="A18" s="2">
         <v>129219</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4">
         <v>1416</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <v>1544</v>
@@ -2863,137 +4130,140 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="6">
-        <v>43757.613993055602</v>
+        <v>45</v>
+      </c>
+      <c r="H18" s="10">
+        <v>43757.6139930556</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="26" spans="1:9">
+      <c r="A19" s="6">
         <v>129154</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8">
         <v>1000</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H19" s="11">
-        <v>43757.598564814798</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>23</v>
+        <v>43757.5985648148</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1045" display="1045" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1037" display="1037" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C2" r:id="rId2" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
+    <hyperlink ref="B3" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C3" r:id="rId3" display="1045" tooltip="http://oj.czos.cn/problem.php?id=1045"/>
+    <hyperlink ref="B4" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C4" r:id="rId4" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
+    <hyperlink ref="B5" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C5" r:id="rId5" display="1037" tooltip="http://oj.czos.cn/problem.php?id=1037"/>
+    <hyperlink ref="B6" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C6" r:id="rId6" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
+    <hyperlink ref="B7" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C7" r:id="rId7" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="B8" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C8" r:id="rId8" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
+    <hyperlink ref="B9" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C9" r:id="rId9" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="B10" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C10" r:id="rId10" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="B11" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C11" r:id="rId11" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="B12" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C12" r:id="rId12" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
+    <hyperlink ref="B13" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C13" r:id="rId13" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="B14" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C14" r:id="rId14" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
+    <hyperlink ref="B15" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C15" r:id="rId15" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="B16" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C16" r:id="rId16" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="B17" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C17" r:id="rId17" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="B18" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C18" r:id="rId18" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="B19" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
+    <hyperlink ref="C19" r:id="rId19" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="17.55" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="27.5" spans="1:9">
       <c r="A2" s="2">
         <v>153352</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4">
         <v>1031</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -3002,56 +4272,56 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="6">
-        <v>43806.589675925898</v>
+        <v>48</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43806.5896759259</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="26.75" spans="1:9">
+      <c r="A3" s="6">
         <v>153178</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8">
         <v>1049</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.563831018502</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43806.5638310185</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="26.75" spans="1:9">
       <c r="A4" s="2">
         <v>149466</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4">
         <v>1044</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -3060,56 +4330,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43799.640833333302</v>
+        <v>51</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43799.6408333333</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="26.75" spans="1:9">
+      <c r="A5" s="6">
         <v>149276</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8">
         <v>1304</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>44</v>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="H5" s="11">
-        <v>43799.602997685201</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43799.6029976852</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="26.75" spans="1:9">
       <c r="A6" s="2">
         <v>146792</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4">
         <v>1324</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -3118,56 +4388,56 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43793.893171296302</v>
+        <v>53</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43793.8931712963</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="26.75" spans="1:9">
+      <c r="A7" s="6">
         <v>146777</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
         <v>1030</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>46</v>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H7" s="11">
-        <v>43793.885729166701</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43793.8857291667</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="26.75" spans="1:9">
       <c r="A8" s="2">
         <v>146766</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4">
         <v>1034</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -3176,56 +4446,56 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="10">
+        <v>43793.8735069444</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="26.75" spans="1:9">
+      <c r="A9" s="6">
+        <v>146760</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="6">
-        <v>43793.873506944401</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>146760</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1043</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H9" s="11">
-        <v>43793.870405092603</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43793.8704050926</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="26.75" spans="1:9">
       <c r="A10" s="2">
         <v>145257</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4">
         <v>1303</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -3234,56 +4504,56 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="6">
+        <v>56</v>
+      </c>
+      <c r="H10" s="10">
         <v>43792.6352430556</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="26.75" spans="1:9">
+      <c r="A11" s="6">
         <v>135615</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8">
         <v>1109</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="H11" s="11">
-        <v>43771.683310185203</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43771.6833101852</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="26.75" spans="1:9">
       <c r="A12" s="2">
         <v>135488</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4">
         <v>1390</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -3292,56 +4562,56 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="6">
-        <v>43771.632337962998</v>
+        <v>57</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43771.632337963</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="26.75" spans="1:9">
+      <c r="A13" s="6">
         <v>135462</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8">
         <v>1028</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H13" s="11">
-        <v>43771.627731481502</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43771.6277314815</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="26.75" spans="1:9">
       <c r="A14" s="2">
         <v>135408</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4">
         <v>1027</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2">
         <v>1544</v>
@@ -3350,56 +4620,56 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="6">
-        <v>43771.620231481502</v>
+        <v>59</v>
+      </c>
+      <c r="H14" s="10">
+        <v>43771.6202314815</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="26.75" spans="1:9">
+      <c r="A15" s="6">
         <v>133692</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8">
         <v>1337</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="H15" s="11">
         <v>43765.8444675926</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="26.75" spans="1:9">
       <c r="A16" s="2">
         <v>132604</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4">
         <v>1338</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
         <v>1544</v>
@@ -3408,56 +4678,56 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="6">
+        <v>61</v>
+      </c>
+      <c r="H16" s="10">
         <v>43764.6777083333</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="26.75" spans="1:9">
+      <c r="A17" s="6">
         <v>132592</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="8">
         <v>1329</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>54</v>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="H17" s="11">
         <v>43764.6723263889</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="26.75" spans="1:9">
       <c r="A18" s="2">
         <v>132548</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4">
         <v>1005</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <v>1544</v>
@@ -3466,56 +4736,56 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="6">
-        <v>43764.640347222201</v>
+        <v>63</v>
+      </c>
+      <c r="H18" s="10">
+        <v>43764.6403472222</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="26.75" spans="1:9">
+      <c r="A19" s="6">
         <v>132377</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8">
         <v>1317</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>56</v>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H19" s="11">
-        <v>43764.608425925901</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43764.6084259259</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="26.75" spans="1:9">
       <c r="A20" s="2">
         <v>131403</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4">
         <v>1417</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2">
         <v>1544</v>
@@ -3524,143 +4794,144 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="6">
-        <v>43762.797858796301</v>
+        <v>46</v>
+      </c>
+      <c r="H20" s="10">
+        <v>43762.7978587963</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="26" spans="1:9">
+      <c r="A21" s="6">
         <v>129331</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8">
         <v>1320</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
+      <c r="D21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="H21" s="11">
-        <v>43757.631469907399</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>23</v>
+        <v>43757.6314699074</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1049" display="1049" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1324" display="1324" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
+    <hyperlink ref="B3" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C3" r:id="rId3" display="1049" tooltip="http://oj.czos.cn/problem.php?id=1049"/>
+    <hyperlink ref="B4" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C4" r:id="rId4" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
+    <hyperlink ref="B5" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C5" r:id="rId5" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
+    <hyperlink ref="B6" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C6" r:id="rId6" display="1324" tooltip="http://oj.czos.cn/problem.php?id=1324"/>
+    <hyperlink ref="B7" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C7" r:id="rId7" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
+    <hyperlink ref="B8" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C8" r:id="rId8" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
+    <hyperlink ref="B9" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C9" r:id="rId9" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
+    <hyperlink ref="B10" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C10" r:id="rId10" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="B11" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C11" r:id="rId11" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
+    <hyperlink ref="B12" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C12" r:id="rId12" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
+    <hyperlink ref="B13" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C13" r:id="rId13" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="B14" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C14" r:id="rId14" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="B15" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C15" r:id="rId15" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="B16" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C16" r:id="rId16" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
+    <hyperlink ref="B17" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C17" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="B18" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C18" r:id="rId18" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
+    <hyperlink ref="B19" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C19" r:id="rId19" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="B20" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C20" r:id="rId20" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="B21" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
+    <hyperlink ref="C21" r:id="rId21" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="17.55" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="27.5" spans="1:9">
       <c r="A2" s="2">
         <v>153399</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4">
         <v>1417</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -3669,56 +4940,56 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="6">
-        <v>43806.595266203702</v>
+        <v>67</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43806.5952662037</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="26.75" spans="1:9">
+      <c r="A3" s="6">
         <v>153367</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8">
         <v>1416</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>60</v>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.591550925899</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43806.5915509259</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="26.75" spans="1:9">
       <c r="A4" s="2">
         <v>152522</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4">
         <v>1300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -3727,56 +4998,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43805.895775463003</v>
+        <v>69</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43805.895775463</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="26.75" spans="1:9">
+      <c r="A5" s="6">
         <v>152518</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="8">
         <v>1301</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>62</v>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H5" s="11">
-        <v>43805.892094907402</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43805.8920949074</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="26.75" spans="1:9">
       <c r="A6" s="2">
         <v>152512</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4">
         <v>1302</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -3785,56 +5056,56 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43805.889976851897</v>
+        <v>71</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43805.8899768519</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="26.75" spans="1:9">
+      <c r="A7" s="6">
         <v>149468</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="8">
         <v>1044</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>64</v>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H7" s="11">
-        <v>43799.640914351898</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43799.6409143519</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="26.75" spans="1:9">
       <c r="A8" s="2">
         <v>149268</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4">
         <v>1304</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -3843,56 +5114,56 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="6">
+        <v>73</v>
+      </c>
+      <c r="H8" s="10">
         <v>43799.5999884259</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="26.75" spans="1:9">
+      <c r="A9" s="6">
         <v>145247</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="8">
         <v>1303</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>66</v>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="11">
         <v>43792.6324074074</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="26.75" spans="1:9">
       <c r="A10" s="2">
         <v>135804</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4">
         <v>1109</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -3901,56 +5172,56 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="6">
+        <v>75</v>
+      </c>
+      <c r="H10" s="10">
         <v>43771.8914351852</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="26.75" spans="1:9">
+      <c r="A11" s="6">
         <v>135773</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="8">
         <v>1029</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="H11" s="11">
-        <v>43771.827129629601</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43771.8271296296</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="26.75" spans="1:9">
       <c r="A12" s="2">
         <v>135768</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4">
         <v>1390</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -3959,56 +5230,56 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="6">
-        <v>43771.817581018498</v>
+        <v>77</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43771.8175810185</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="26.75" spans="1:9">
+      <c r="A13" s="6">
         <v>135500</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8">
         <v>1028</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>53</v>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="H13" s="11">
-        <v>43771.637557870403</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43771.6375578704</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="26.75" spans="1:9">
       <c r="A14" s="2">
         <v>135453</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4">
         <v>1027</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2">
         <v>1544</v>
@@ -4017,56 +5288,56 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="6">
-        <v>43771.625231481499</v>
+        <v>48</v>
+      </c>
+      <c r="H14" s="10">
+        <v>43771.6252314815</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="26.75" spans="1:9">
+      <c r="A15" s="6">
         <v>134629</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8">
         <v>1337</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>70</v>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="H15" s="11">
-        <v>43770.859351851897</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43770.8593518519</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="26.75" spans="1:9">
       <c r="A16" s="2">
         <v>134613</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4">
         <v>1338</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
         <v>1544</v>
@@ -4075,56 +5346,56 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="6">
-        <v>43770.846620370401</v>
+        <v>79</v>
+      </c>
+      <c r="H16" s="10">
+        <v>43770.8466203704</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="26.75" spans="1:9">
+      <c r="A17" s="6">
         <v>134612</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="8">
         <v>1329</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>47</v>
+      <c r="D17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="H17" s="11">
-        <v>43770.843692129602</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43770.8436921296</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="26.75" spans="1:9">
       <c r="A18" s="2">
         <v>133052</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4">
         <v>1320</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <v>1544</v>
@@ -4133,56 +5404,56 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="6">
-        <v>43765.481030092596</v>
+        <v>80</v>
+      </c>
+      <c r="H18" s="10">
+        <v>43765.4810300926</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="26.75" spans="1:9">
+      <c r="A19" s="6">
         <v>133046</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="8">
         <v>1329</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>73</v>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="H19" s="11">
         <v>43765.4769675926</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="26.75" spans="1:9">
       <c r="A20" s="2">
         <v>133036</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4">
         <v>1329</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2">
         <v>1544</v>
@@ -4191,143 +5462,144 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="6">
+        <v>81</v>
+      </c>
+      <c r="H20" s="10">
         <v>43765.4703703704</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="26" spans="1:9">
+      <c r="A21" s="6">
         <v>132559</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="8">
         <v>1000</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>74</v>
+      <c r="D21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="H21" s="11">
-        <v>43764.654699074097</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>23</v>
+        <v>43764.6546990741</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1301" display="1301" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1029" display="1029" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C2" r:id="rId2" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="B3" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C3" r:id="rId3" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="B4" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C4" r:id="rId4" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
+    <hyperlink ref="B5" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C5" r:id="rId5" display="1301" tooltip="http://oj.czos.cn/problem.php?id=1301"/>
+    <hyperlink ref="B6" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C6" r:id="rId6" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
+    <hyperlink ref="B7" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C7" r:id="rId7" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
+    <hyperlink ref="B8" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C8" r:id="rId8" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
+    <hyperlink ref="B9" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C9" r:id="rId9" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="B10" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C10" r:id="rId10" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
+    <hyperlink ref="B11" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C11" r:id="rId11" display="1029" tooltip="http://oj.czos.cn/problem.php?id=1029"/>
+    <hyperlink ref="B12" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C12" r:id="rId12" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
+    <hyperlink ref="B13" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C13" r:id="rId13" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="B14" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C14" r:id="rId14" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="B15" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C15" r:id="rId15" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="B16" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C16" r:id="rId16" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
+    <hyperlink ref="B17" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C17" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="B18" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C18" r:id="rId18" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="B19" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C19" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="B20" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C20" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="B21" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
+    <hyperlink ref="C21" r:id="rId19" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="17.55" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="27.5" spans="1:9">
       <c r="A2" s="2">
         <v>153374</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4">
         <v>1416</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -4336,56 +5608,56 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6">
-        <v>43806.592511574097</v>
+        <v>59</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43806.5925115741</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="26.75" spans="1:9">
+      <c r="A3" s="6">
         <v>153350</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8">
         <v>1317</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>76</v>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.589236111096</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43806.5892361111</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="26.75" spans="1:9">
       <c r="A4" s="2">
         <v>152584</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4">
         <v>1300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -4394,56 +5666,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="6">
+        <v>85</v>
+      </c>
+      <c r="H4" s="10">
         <v>43805.9203472222</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="26.75" spans="1:9">
+      <c r="A5" s="6">
         <v>152546</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="8">
         <v>1039</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>45</v>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H5" s="11">
-        <v>43805.905567129601</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43805.9055671296</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="26.75" spans="1:9">
       <c r="A6" s="2">
         <v>152542</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4">
         <v>1044</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -4452,56 +5724,56 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43805.903206018498</v>
+        <v>86</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43805.9032060185</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="26.75" spans="1:9">
+      <c r="A7" s="6">
         <v>152527</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="8">
         <v>1305</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>79</v>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="H7" s="11">
-        <v>43805.898310185199</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43805.8983101852</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="26.75" spans="1:9">
       <c r="A8" s="2">
         <v>152499</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4">
         <v>1035</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -4510,56 +5782,56 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="6">
-        <v>43805.874166666697</v>
+        <v>88</v>
+      </c>
+      <c r="H8" s="10">
+        <v>43805.8741666667</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="26.75" spans="1:9">
+      <c r="A9" s="6">
         <v>152414</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="8">
         <v>1304</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>81</v>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="H9" s="11">
-        <v>43805.794918981497</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43805.7949189815</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="26.75" spans="1:9">
       <c r="A10" s="2">
         <v>148319</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4">
         <v>1030</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -4568,56 +5840,56 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="6">
+        <v>39</v>
+      </c>
+      <c r="H10" s="10">
         <v>43798.8035648148</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="26.75" spans="1:9">
+      <c r="A11" s="6">
         <v>148302</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="8">
         <v>1043</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>82</v>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="H11" s="11">
         <v>43798.7941319444</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="26.75" spans="1:9">
       <c r="A12" s="2">
         <v>147930</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4">
         <v>1302</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -4626,56 +5898,56 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43797.8188888889</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="26.75" spans="1:9">
+      <c r="A13" s="6">
+        <v>147929</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="6">
-        <v>43797.818888888898</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>147929</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>1033</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="11">
-        <v>43797.815486111103</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43797.8154861111</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="26.75" spans="1:9">
       <c r="A14" s="2">
         <v>147927</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4">
         <v>1034</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2">
         <v>1544</v>
@@ -4684,56 +5956,56 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="6">
-        <v>43797.813645833303</v>
+        <v>92</v>
+      </c>
+      <c r="H14" s="10">
+        <v>43797.8136458333</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="26.75" spans="1:9">
+      <c r="A15" s="6">
         <v>145218</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="8">
         <v>1303</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>85</v>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="H15" s="11">
-        <v>43792.624305555597</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43792.6243055556</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="26.75" spans="1:9">
       <c r="A16" s="2">
         <v>139011</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C16" s="4">
         <v>1109</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
         <v>1544</v>
@@ -4742,56 +6014,56 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="6">
+        <v>74</v>
+      </c>
+      <c r="H16" s="10">
         <v>43778.6861921296</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="26.75" spans="1:9">
+      <c r="A17" s="6">
         <v>137571</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="8">
         <v>1390</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>50</v>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H17" s="11">
-        <v>43776.876539351899</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43776.8765393519</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="26.75" spans="1:9">
       <c r="A18" s="2">
         <v>135476</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C18" s="4">
         <v>1028</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <v>1544</v>
@@ -4800,56 +6072,56 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="6">
+        <v>94</v>
+      </c>
+      <c r="H18" s="10">
         <v>43771.6300694444</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="26.75" spans="1:9">
+      <c r="A19" s="6">
         <v>135416</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="8">
         <v>1027</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="H19" s="11">
-        <v>43771.621631944399</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43771.6216319444</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="26.75" spans="1:9">
       <c r="A20" s="2">
         <v>134670</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C20" s="4">
         <v>1338</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2">
         <v>1544</v>
@@ -4858,143 +6130,144 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="6">
-        <v>43770.885138888902</v>
+        <v>96</v>
+      </c>
+      <c r="H20" s="10">
+        <v>43770.8851388889</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="26" spans="1:9">
+      <c r="A21" s="6">
         <v>134660</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="8">
         <v>1337</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>89</v>
+      <c r="D21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H21" s="11">
-        <v>43770.878136574102</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>23</v>
+        <v>43770.8781365741</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1039" display="1039" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1305" display="1305" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1035" display="1035" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1033" display="1033" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
-    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
-    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
-    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
-    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
-    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
-    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
-    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
-    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C2" r:id="rId2" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="B3" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C3" r:id="rId3" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="B4" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C4" r:id="rId4" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
+    <hyperlink ref="B5" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C5" r:id="rId5" display="1039" tooltip="http://oj.czos.cn/problem.php?id=1039"/>
+    <hyperlink ref="B6" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C6" r:id="rId6" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
+    <hyperlink ref="B7" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C7" r:id="rId7" display="1305" tooltip="http://oj.czos.cn/problem.php?id=1305"/>
+    <hyperlink ref="B8" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C8" r:id="rId8" display="1035" tooltip="http://oj.czos.cn/problem.php?id=1035"/>
+    <hyperlink ref="B9" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C9" r:id="rId9" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
+    <hyperlink ref="B10" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C10" r:id="rId10" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
+    <hyperlink ref="B11" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C11" r:id="rId11" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
+    <hyperlink ref="B12" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C12" r:id="rId12" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
+    <hyperlink ref="B13" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C13" r:id="rId13" display="1033" tooltip="http://oj.czos.cn/problem.php?id=1033"/>
+    <hyperlink ref="B14" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C14" r:id="rId14" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
+    <hyperlink ref="B15" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C15" r:id="rId15" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="B16" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C16" r:id="rId16" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
+    <hyperlink ref="B17" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C17" r:id="rId17" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
+    <hyperlink ref="B18" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C18" r:id="rId18" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="B19" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C19" r:id="rId19" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="B20" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C20" r:id="rId20" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
+    <hyperlink ref="B21" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C21" r:id="rId21" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="17.55" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="27.5" spans="1:9">
       <c r="A2" s="2">
         <v>134660</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4">
         <v>1337</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -5003,56 +6276,56 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="6">
-        <v>43770.878136574102</v>
+        <v>97</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43770.8781365741</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="26.75" spans="1:9">
+      <c r="A3" s="6">
         <v>134638</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8">
         <v>1329</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>90</v>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="H3" s="11">
         <v>43770.8671875</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="26.75" spans="1:9">
       <c r="A4" s="2">
         <v>134407</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4">
         <v>1000</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -5061,56 +6334,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43769.890370370398</v>
+        <v>99</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43769.8903703704</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="26.75" spans="1:9">
+      <c r="A5" s="6">
         <v>132541</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="8">
         <v>1031</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>34</v>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="11">
-        <v>43764.637152777803</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43764.6371527778</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="26" spans="1:9">
       <c r="A6" s="2">
         <v>131542</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4">
         <v>1417</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -5119,84 +6392,85 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43763.734907407401</v>
+        <v>100</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43763.7349074074</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C2" r:id="rId2" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="B3" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C3" r:id="rId3" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="B4" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C4" r:id="rId4" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B5" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C5" r:id="rId5" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
+    <hyperlink ref="B6" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
+    <hyperlink ref="C6" r:id="rId6" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="17.55" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="27.5" spans="1:9">
       <c r="A2" s="2">
         <v>153378</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4">
         <v>1031</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -5205,56 +6479,56 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="6">
-        <v>43806.592905092599</v>
+        <v>102</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43806.5929050926</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="26.75" spans="1:9">
+      <c r="A3" s="6">
         <v>145260</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="8">
         <v>1303</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>95</v>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="H3" s="11">
-        <v>43792.635601851798</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43792.6356018518</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="26.75" spans="1:9">
       <c r="A4" s="2">
         <v>135498</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4">
         <v>1028</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -5263,56 +6537,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43771.635648148098</v>
+        <v>95</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43771.6356481481</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="26.75" spans="1:9">
+      <c r="A5" s="6">
         <v>135484</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="8">
         <v>1027</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="H5" s="11">
-        <v>43771.631446759297</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43771.6314467593</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="26.75" spans="1:9">
       <c r="A6" s="2">
         <v>135251</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4">
         <v>1329</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -5321,56 +6595,56 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43771.573310185202</v>
+        <v>103</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43771.5733101852</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="26.75" spans="1:9">
+      <c r="A7" s="6">
         <v>132550</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="8">
         <v>1005</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>86</v>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="H7" s="11">
-        <v>43764.641284722202</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43764.6412847222</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="26.75" spans="1:9">
       <c r="A8" s="2">
         <v>132429</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4">
         <v>1317</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -5379,56 +6653,56 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="6">
-        <v>43764.617013888899</v>
+        <v>102</v>
+      </c>
+      <c r="H8" s="10">
+        <v>43764.6170138889</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="26.75" spans="1:9">
+      <c r="A9" s="6">
         <v>132393</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="8">
         <v>1317</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>94</v>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H9" s="11">
-        <v>43764.610775462999</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43764.610775463</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="26.75" spans="1:9">
       <c r="A10" s="2">
         <v>129397</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4">
         <v>1417</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -5437,56 +6711,56 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="6">
-        <v>43757.663113425901</v>
+        <v>105</v>
+      </c>
+      <c r="H10" s="10">
+        <v>43757.6631134259</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="26.75" spans="1:9">
+      <c r="A11" s="6">
         <v>129344</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="8">
         <v>1320</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>98</v>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="H11" s="11">
-        <v>43757.634085648097</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43757.6340856481</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="26.75" spans="1:9">
       <c r="A12" s="2">
         <v>129232</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C12" s="4">
         <v>1416</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -5495,127 +6769,128 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="6">
-        <v>43757.620717592603</v>
+        <v>82</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43757.6207175926</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="26" spans="1:9">
+      <c r="A13" s="6">
         <v>129156</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8">
         <v>1000</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>99</v>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="H13" s="11">
-        <v>43757.600208333301</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>23</v>
+        <v>43757.6002083333</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
+    <hyperlink ref="B3" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C3" r:id="rId3" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="B4" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C4" r:id="rId4" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="B5" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C5" r:id="rId5" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="B6" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C6" r:id="rId6" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="B7" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C7" r:id="rId7" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
+    <hyperlink ref="B8" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C8" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="B9" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C9" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="B10" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C10" r:id="rId9" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="B11" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C11" r:id="rId10" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="B12" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C12" r:id="rId11" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="B13" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C13" r:id="rId12" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="17.55" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="27.5" spans="1:9">
       <c r="A2" s="2">
         <v>153378</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4">
         <v>1031</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -5624,56 +6899,56 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="6">
-        <v>43806.592905092599</v>
+        <v>102</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43806.5929050926</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="26.75" spans="1:9">
+      <c r="A3" s="6">
         <v>145260</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="8">
         <v>1303</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>95</v>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="H3" s="11">
-        <v>43792.635601851798</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43792.6356018518</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="26.75" spans="1:9">
       <c r="A4" s="2">
         <v>135498</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4">
         <v>1028</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -5682,56 +6957,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43771.635648148098</v>
+        <v>95</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43771.6356481481</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="26.75" spans="1:9">
+      <c r="A5" s="6">
         <v>135484</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="8">
         <v>1027</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="H5" s="11">
-        <v>43771.631446759297</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43771.6314467593</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="26.75" spans="1:9">
       <c r="A6" s="2">
         <v>135251</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4">
         <v>1329</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -5740,56 +7015,56 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43771.573310185202</v>
+        <v>103</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43771.5733101852</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="26.75" spans="1:9">
+      <c r="A7" s="6">
         <v>132550</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="8">
         <v>1005</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>86</v>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="H7" s="11">
-        <v>43764.641284722202</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43764.6412847222</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="26.75" spans="1:9">
       <c r="A8" s="2">
         <v>132429</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4">
         <v>1317</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -5798,56 +7073,56 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="6">
-        <v>43764.617013888899</v>
+        <v>102</v>
+      </c>
+      <c r="H8" s="10">
+        <v>43764.6170138889</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="26.75" spans="1:9">
+      <c r="A9" s="6">
         <v>132393</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="8">
         <v>1317</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>94</v>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H9" s="11">
-        <v>43764.610775462999</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43764.610775463</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="26.75" spans="1:9">
       <c r="A10" s="2">
         <v>129397</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4">
         <v>1417</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -5856,56 +7131,56 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="6">
-        <v>43757.663113425901</v>
+        <v>105</v>
+      </c>
+      <c r="H10" s="10">
+        <v>43757.6631134259</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="26.75" spans="1:9">
+      <c r="A11" s="6">
         <v>129344</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="8">
         <v>1320</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>98</v>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="H11" s="11">
-        <v>43757.634085648097</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43757.6340856481</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="26.75" spans="1:9">
       <c r="A12" s="2">
         <v>129232</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C12" s="4">
         <v>1416</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -5914,72 +7189,72 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="6">
-        <v>43757.620717592603</v>
+        <v>82</v>
+      </c>
+      <c r="H12" s="10">
+        <v>43757.6207175926</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="26" spans="1:9">
+      <c r="A13" s="6">
         <v>129156</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8">
         <v>1000</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1544</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>99</v>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="H13" s="11">
-        <v>43757.600208333301</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>23</v>
+        <v>43757.6002083333</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
-    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
-    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
+    <hyperlink ref="B3" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C3" r:id="rId3" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
+    <hyperlink ref="B4" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C4" r:id="rId4" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
+    <hyperlink ref="B5" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C5" r:id="rId5" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
+    <hyperlink ref="B6" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C6" r:id="rId6" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
+    <hyperlink ref="B7" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C7" r:id="rId7" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
+    <hyperlink ref="B8" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C8" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="B9" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C9" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
+    <hyperlink ref="B10" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C10" r:id="rId9" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="B11" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C11" r:id="rId10" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="B12" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C12" r:id="rId11" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
+    <hyperlink ref="B13" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
+    <hyperlink ref="C13" r:id="rId12" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/作业情况.xlsx
+++ b/作业情况.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\05Code\06CPP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CAB5A-0CC2-41BC-AD75-32A922CDAB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15220" windowHeight="14100"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,20 @@
     <sheet name="Sheet8" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet9" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="109">
   <si>
     <t>课堂</t>
   </si>
@@ -42,21 +56,6 @@
   </si>
   <si>
     <t>张孙禾奥</t>
-  </si>
-  <si>
-    <t>李思凡问题</t>
-  </si>
-  <si>
-    <t>王天一问题</t>
-  </si>
-  <si>
-    <t>李亦璠问题</t>
-  </si>
-  <si>
-    <t>左承霖问题</t>
-  </si>
-  <si>
-    <t>张孙和奥问题</t>
   </si>
   <si>
     <t>04</t>
@@ -115,7 +114,7 @@
         <sz val="10.5"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>正确</t>
     </r>
@@ -124,7 +123,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -133,7 +132,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>¥</t>
     </r>
@@ -142,7 +141,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -380,19 +379,37 @@
   </si>
   <si>
     <t>140 B</t>
+  </si>
+  <si>
+    <t>李亦璠问题liyifan2008</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王天一问题wangtianyi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>左承霖zuochenglin问题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>张孙和奥zhangsunheao问题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李思凡lisifan问题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,25 +422,25 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF4183C4"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -440,171 +457,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,194 +517,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -848,255 +544,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,65 +596,24 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1458,32 +871,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:G53"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77884615384615" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.10576923076923" style="13" customWidth="1"/>
-    <col min="3" max="6" width="7.88461538461539" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.08984375" style="13" customWidth="1"/>
+    <col min="3" max="6" width="7.90625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="9" width="3.22115384615385" customWidth="1"/>
-    <col min="10" max="13" width="12.3365384615385" customWidth="1"/>
-    <col min="14" max="14" width="14.6634615384615" customWidth="1"/>
+    <col min="8" max="9" width="3.1796875" customWidth="1"/>
+    <col min="10" max="11" width="12.36328125" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1506,24 +920,24 @@
         <v>6</v>
       </c>
       <c r="J1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" ht="18.3" spans="1:14">
-      <c r="A2" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="13">
         <v>1000</v>
@@ -1533,7 +947,7 @@
         <v>1000</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,K:K,1,0)</f>
+        <f t="shared" ref="D2:D33" si="0">VLOOKUP(B2,K:K,1,0)</f>
         <v>1000</v>
       </c>
       <c r="E2">
@@ -1564,31 +978,31 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" ht="17.55" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="13">
         <v>1320</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">VLOOKUP(B3,J:J,1,0)</f>
+        <f t="shared" ref="C3:C11" si="1">VLOOKUP(B3,J:J,1,0)</f>
         <v>1320</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1320</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E33" si="1">VLOOKUP(B3,L:L,1,0)</f>
+        <f t="shared" ref="E3:E33" si="2">VLOOKUP(B3,L:L,1,0)</f>
         <v>1320</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F33" si="2">VLOOKUP(B3,M:M,1,0)</f>
+        <f t="shared" ref="F3:F33" si="3">VLOOKUP(B3,M:M,1,0)</f>
         <v>1320</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G33" si="3">VLOOKUP(B3,N:N,1,0)</f>
+        <f t="shared" ref="G3:G33" si="4">VLOOKUP(B3,N:N,1,0)</f>
         <v>1320</v>
       </c>
       <c r="J3" s="8">
@@ -1607,33 +1021,33 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="4" ht="17.55" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="13">
         <v>1416</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>1416</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>1416</v>
       </c>
-      <c r="D4">
-        <f>VLOOKUP(B4,K:K,1,0)</f>
-        <v>1416</v>
-      </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>1416</v>
-      </c>
-      <c r="F4">
         <f t="shared" si="2"/>
         <v>1416</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <f t="shared" si="3"/>
         <v>1416</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>1416</v>
+      </c>
       <c r="J4" s="4">
         <v>1304</v>
       </c>
@@ -1650,33 +1064,33 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="13">
         <v>1417</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1417</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>1417</v>
       </c>
-      <c r="D5">
-        <f>VLOOKUP(B5,K:K,1,0)</f>
-        <v>1417</v>
-      </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>1417</v>
-      </c>
-      <c r="F5">
         <f t="shared" si="2"/>
         <v>1417</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <f t="shared" si="3"/>
         <v>1417</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>1417</v>
+      </c>
       <c r="J5" s="8">
         <v>1037</v>
       </c>
@@ -1693,33 +1107,33 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="13">
         <v>1005</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1005</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="D6">
-        <f>VLOOKUP(B6,K:K,1,0)</f>
-        <v>1005</v>
-      </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1005</v>
-      </c>
-      <c r="F6">
         <f t="shared" si="2"/>
         <v>1005</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <f t="shared" si="3"/>
         <v>1005</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>1005</v>
+      </c>
       <c r="J6" s="4">
         <v>1043</v>
       </c>
@@ -1736,33 +1150,33 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="13">
         <v>1031</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>1031</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="D7">
-        <f>VLOOKUP(B7,K:K,1,0)</f>
-        <v>1031</v>
-      </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1031</v>
-      </c>
-      <c r="F7">
         <f t="shared" si="2"/>
         <v>1031</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <f t="shared" si="3"/>
         <v>1031</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>1031</v>
+      </c>
       <c r="J7" s="8">
         <v>1303</v>
       </c>
@@ -1779,33 +1193,33 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="13">
         <v>1317</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1317</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>1317</v>
       </c>
-      <c r="D8">
-        <f>VLOOKUP(B8,K:K,1,0)</f>
-        <v>1317</v>
-      </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>1317</v>
-      </c>
-      <c r="F8">
         <f t="shared" si="2"/>
         <v>1317</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <f t="shared" si="3"/>
         <v>1317</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>1317</v>
+      </c>
       <c r="J8" s="4">
         <v>1390</v>
       </c>
@@ -1822,33 +1236,33 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13">
         <v>1329</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1329</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>1329</v>
       </c>
-      <c r="D9">
-        <f>VLOOKUP(B9,K:K,1,0)</f>
-        <v>1329</v>
-      </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>1329</v>
-      </c>
-      <c r="F9">
         <f t="shared" si="2"/>
         <v>1329</v>
       </c>
-      <c r="G9">
+      <c r="F9">
         <f t="shared" si="3"/>
         <v>1329</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>1329</v>
+      </c>
       <c r="J9" s="8">
         <v>1028</v>
       </c>
@@ -1865,31 +1279,31 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="13">
         <v>1337</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1337</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>1337</v>
       </c>
-      <c r="D10">
-        <f>VLOOKUP(B10,K:K,1,0)</f>
-        <v>1337</v>
-      </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>1337</v>
-      </c>
-      <c r="F10">
         <f t="shared" si="2"/>
         <v>1337</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>1337</v>
+      </c>
       <c r="G10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J10" s="4">
@@ -1908,31 +1322,31 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" s="13">
         <v>1338</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1338</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>1338</v>
       </c>
-      <c r="D11">
-        <f>VLOOKUP(B11,K:K,1,0)</f>
-        <v>1338</v>
-      </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>1338</v>
-      </c>
-      <c r="F11">
         <f t="shared" si="2"/>
         <v>1338</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>1338</v>
+      </c>
       <c r="G11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J11" s="8">
@@ -1951,33 +1365,33 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="12" ht="17.55" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" s="13">
         <v>1027</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C33" si="4">VLOOKUP(B12,J:J,1,0)</f>
+        <f t="shared" ref="C12:C33" si="5">VLOOKUP(B12,J:J,1,0)</f>
         <v>1027</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1027</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>1027</v>
-      </c>
-      <c r="F12">
         <f t="shared" si="2"/>
         <v>1027</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <f t="shared" si="3"/>
         <v>1027</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>1027</v>
+      </c>
       <c r="J12" s="4">
         <v>1338</v>
       </c>
@@ -1994,31 +1408,31 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="13" ht="17.55" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="13">
         <v>1109</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1109</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1109</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>1109</v>
-      </c>
-      <c r="F13">
         <f t="shared" si="2"/>
         <v>1109</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1109</v>
+      </c>
       <c r="G13" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J13" s="8">
@@ -2037,31 +1451,31 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" ht="17.55" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" s="13">
         <v>1390</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1390</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1390</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>1390</v>
-      </c>
-      <c r="F14">
         <f t="shared" si="2"/>
         <v>1390</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>1390</v>
+      </c>
       <c r="G14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J14" s="4">
@@ -2080,31 +1494,31 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="15" ht="17.55" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" s="13">
         <v>1030</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1030</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1030</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>1030</v>
-      </c>
-      <c r="F15">
         <f t="shared" si="2"/>
         <v>1030</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>1030</v>
+      </c>
       <c r="G15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J15" s="8">
@@ -2123,33 +1537,33 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="13">
         <v>1033</v>
       </c>
       <c r="C16">
+        <f t="shared" si="5"/>
+        <v>1033</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1033</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>1033</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>1033</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="4"/>
         <v>1033</v>
       </c>
-      <c r="D16">
-        <f>VLOOKUP(B16,K:K,1,0)</f>
-        <v>1033</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>1033</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>1033</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>1033</v>
-      </c>
       <c r="J16" s="4">
         <v>1417</v>
       </c>
@@ -2166,31 +1580,31 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="13">
         <v>1034</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1034</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1034</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>1034</v>
-      </c>
-      <c r="F17">
         <f t="shared" si="2"/>
         <v>1034</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>1034</v>
+      </c>
       <c r="G17" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J17" s="8">
@@ -2209,31 +1623,31 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" s="13">
         <v>1037</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1037</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1037</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>1037</v>
-      </c>
-      <c r="F18">
         <f t="shared" si="2"/>
         <v>1037</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>1037</v>
+      </c>
       <c r="G18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J18" s="4">
@@ -2252,31 +1666,31 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19" s="13">
         <v>1043</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1043</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1043</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>1043</v>
-      </c>
-      <c r="F19">
         <f t="shared" si="2"/>
         <v>1043</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>1043</v>
+      </c>
       <c r="G19" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J19" s="8">
@@ -2295,31 +1709,31 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="13">
         <v>1045</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1045</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1045</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>1045</v>
-      </c>
-      <c r="F20">
         <f t="shared" si="2"/>
         <v>1045</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>1045</v>
+      </c>
       <c r="G20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J20">
@@ -2338,31 +1752,31 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" s="13">
         <v>1302</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1302</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1302</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>1302</v>
-      </c>
-      <c r="F21">
         <f t="shared" si="2"/>
         <v>1302</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>1302</v>
+      </c>
       <c r="G21" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J21">
@@ -2381,33 +1795,33 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" s="13">
         <v>1303</v>
       </c>
       <c r="C22">
+        <f t="shared" si="5"/>
+        <v>1303</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1303</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>1303</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>1303</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="4"/>
         <v>1303</v>
       </c>
-      <c r="D22">
-        <f>VLOOKUP(B22,K:K,1,0)</f>
-        <v>1303</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>1303</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>1303</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>1303</v>
-      </c>
       <c r="J22">
         <v>1033</v>
       </c>
@@ -2424,31 +1838,31 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B23" s="13">
         <v>1309</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1309</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1309</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>1309</v>
-      </c>
-      <c r="F23">
         <f t="shared" si="2"/>
         <v>1309</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>1309</v>
+      </c>
       <c r="G23" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J23">
@@ -2467,31 +1881,31 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="13">
         <v>1324</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1324</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,K:K,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1324</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>1324</v>
-      </c>
-      <c r="F24">
         <f t="shared" si="2"/>
         <v>1324</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>1324</v>
+      </c>
       <c r="G24" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="J24">
@@ -2510,33 +1924,33 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" s="13">
         <v>1035</v>
       </c>
       <c r="C25">
+        <f t="shared" si="5"/>
+        <v>1035</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1035</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>1035</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="4"/>
         <v>1035</v>
       </c>
-      <c r="D25">
-        <f>VLOOKUP(B25,K:K,1,0)</f>
-        <v>1035</v>
-      </c>
-      <c r="E25" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>1035</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>1035</v>
-      </c>
       <c r="J25">
         <v>1302</v>
       </c>
@@ -2553,33 +1967,33 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B26" s="13">
         <v>1039</v>
       </c>
       <c r="C26">
+        <f t="shared" si="5"/>
+        <v>1039</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1039</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>1039</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="4"/>
         <v>1039</v>
       </c>
-      <c r="D26">
-        <f>VLOOKUP(B26,K:K,1,0)</f>
-        <v>1039</v>
-      </c>
-      <c r="E26" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>1039</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>1039</v>
-      </c>
       <c r="J26">
         <v>1309</v>
       </c>
@@ -2593,33 +2007,33 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B27" s="13">
         <v>1044</v>
       </c>
       <c r="C27">
+        <f t="shared" si="5"/>
+        <v>1044</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1044</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1044</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>1044</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="4"/>
         <v>1044</v>
       </c>
-      <c r="D27">
-        <f>VLOOKUP(B27,K:K,1,0)</f>
-        <v>1044</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>1044</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>1044</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>1044</v>
-      </c>
       <c r="J27">
         <v>1324</v>
       </c>
@@ -2633,33 +2047,33 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B28" s="13">
         <v>1049</v>
       </c>
       <c r="C28">
+        <f t="shared" si="5"/>
+        <v>1049</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1049</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>1049</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="4"/>
         <v>1049</v>
       </c>
-      <c r="D28">
-        <f>VLOOKUP(B28,K:K,1,0)</f>
-        <v>1049</v>
-      </c>
-      <c r="E28" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>1049</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>1049</v>
-      </c>
       <c r="J28">
         <v>1035</v>
       </c>
@@ -2673,33 +2087,33 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B29" s="13">
         <v>1300</v>
       </c>
       <c r="C29">
+        <f t="shared" si="5"/>
+        <v>1300</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="4"/>
         <v>1300</v>
       </c>
-      <c r="D29">
-        <f>VLOOKUP(B29,K:K,1,0)</f>
-        <v>1300</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>1300</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>1300</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>1300</v>
-      </c>
       <c r="J29">
         <v>1039</v>
       </c>
@@ -2713,33 +2127,33 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B30" s="13">
         <v>1304</v>
       </c>
       <c r="C30">
+        <f t="shared" si="5"/>
+        <v>1304</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1304</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>1304</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>1304</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="4"/>
         <v>1304</v>
       </c>
-      <c r="D30">
-        <f>VLOOKUP(B30,K:K,1,0)</f>
-        <v>1304</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>1304</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>1304</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>1304</v>
-      </c>
       <c r="J30">
         <v>1049</v>
       </c>
@@ -2753,33 +2167,33 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B31" s="13">
         <v>1305</v>
       </c>
       <c r="C31">
+        <f t="shared" si="5"/>
+        <v>1305</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1305</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>1305</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>1305</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="4"/>
         <v>1305</v>
       </c>
-      <c r="D31">
-        <f>VLOOKUP(B31,K:K,1,0)</f>
-        <v>1305</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>1305</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>1305</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>1305</v>
-      </c>
       <c r="J31">
         <v>1300</v>
       </c>
@@ -2793,33 +2207,33 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B32" s="13">
         <v>1322</v>
       </c>
       <c r="C32">
+        <f t="shared" si="5"/>
+        <v>1322</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1322</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>1322</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="4"/>
         <v>1322</v>
       </c>
-      <c r="D32">
-        <f>VLOOKUP(B32,K:K,1,0)</f>
-        <v>1322</v>
-      </c>
-      <c r="E32" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>1322</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>1322</v>
-      </c>
       <c r="J32">
         <v>1305</v>
       </c>
@@ -2833,33 +2247,33 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B33" s="13">
         <v>1391</v>
       </c>
       <c r="C33">
+        <f t="shared" si="5"/>
+        <v>1391</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1391</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="4"/>
         <v>1391</v>
       </c>
-      <c r="D33">
-        <f>VLOOKUP(B33,K:K,1,0)</f>
-        <v>1391</v>
-      </c>
-      <c r="E33" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>1391</v>
-      </c>
       <c r="J33">
         <v>1419</v>
       </c>
@@ -2873,31 +2287,31 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B34" s="13">
         <v>1299</v>
       </c>
       <c r="C34" t="e">
-        <f t="shared" ref="C34:C53" si="5">VLOOKUP(B34,J:J,1,0)</f>
+        <f t="shared" ref="C34:C56" si="6">VLOOKUP(B34,J:J,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D53" si="6">VLOOKUP(B34,K:K,1,0)</f>
+        <f t="shared" ref="D34:D56" si="7">VLOOKUP(B34,K:K,1,0)</f>
         <v>1299</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E53" si="7">VLOOKUP(B34,L:L,1,0)</f>
+        <f t="shared" ref="E34:E56" si="8">VLOOKUP(B34,L:L,1,0)</f>
         <v>1299</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F53" si="8">VLOOKUP(B34,M:M,1,0)</f>
+        <f t="shared" ref="F34:F56" si="9">VLOOKUP(B34,M:M,1,0)</f>
         <v>1299</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G53" si="9">VLOOKUP(B34,N:N,1,0)</f>
+        <f t="shared" ref="G34:G56" si="10">VLOOKUP(B34,N:N,1,0)</f>
         <v>1299</v>
       </c>
       <c r="J34">
@@ -2913,31 +2327,31 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B35" s="13">
         <v>1310</v>
       </c>
       <c r="C35" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D35">
-        <f t="shared" si="6"/>
-        <v>1310</v>
-      </c>
-      <c r="E35">
         <f t="shared" si="7"/>
         <v>1310</v>
       </c>
-      <c r="F35">
+      <c r="E35">
         <f t="shared" si="8"/>
         <v>1310</v>
       </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>1310</v>
+      </c>
       <c r="G35" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J35">
@@ -2953,33 +2367,33 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B36" s="13">
         <v>1039</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
-        <v>1039</v>
-      </c>
-      <c r="D36">
         <f t="shared" si="6"/>
         <v>1039</v>
       </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>1039</v>
+      </c>
       <c r="E36" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F36">
-        <f t="shared" si="8"/>
-        <v>1039</v>
-      </c>
-      <c r="G36">
         <f t="shared" si="9"/>
         <v>1039</v>
       </c>
+      <c r="G36">
+        <f t="shared" si="10"/>
+        <v>1039</v>
+      </c>
       <c r="J36">
         <v>1322</v>
       </c>
@@ -2993,31 +2407,31 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B37" s="13">
         <v>1419</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
-        <v>1419</v>
-      </c>
-      <c r="D37">
         <f t="shared" si="6"/>
         <v>1419</v>
       </c>
+      <c r="D37">
+        <f t="shared" si="7"/>
+        <v>1419</v>
+      </c>
       <c r="E37" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F37" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G37" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J37">
@@ -3030,31 +2444,31 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B38" s="13">
         <v>1040</v>
       </c>
       <c r="C38" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1040</v>
       </c>
       <c r="E38" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F38" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G38" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="K38">
@@ -3064,31 +2478,31 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B39" s="13">
         <v>1042</v>
       </c>
       <c r="C39" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D39" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E39" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F39" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G39" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="K39">
@@ -3098,31 +2512,31 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B40" s="13">
         <v>1041</v>
       </c>
       <c r="C40" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1041</v>
       </c>
       <c r="E40" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F40" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G40" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="K40">
@@ -3132,532 +2546,621 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B41" s="13">
         <v>1018</v>
       </c>
       <c r="C41" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D41" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E41" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F41" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G41" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K41">
+        <v>1090</v>
       </c>
       <c r="M41">
         <v>1310</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B42" s="13">
         <v>1004</v>
       </c>
       <c r="C42" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D42" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E42" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F42" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G42" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="M42">
         <v>1056</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B43" s="13">
         <v>1056</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
-        <v>1056</v>
-      </c>
-      <c r="D43">
         <f t="shared" si="6"/>
         <v>1056</v>
       </c>
-      <c r="E43">
+      <c r="D43">
         <f t="shared" si="7"/>
         <v>1056</v>
       </c>
-      <c r="F43">
+      <c r="E43">
         <f t="shared" si="8"/>
         <v>1056</v>
       </c>
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>1056</v>
+      </c>
       <c r="G43" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M43">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B44" s="13">
         <v>1059</v>
       </c>
       <c r="C44" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D44" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E44" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F44" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G44" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B45" s="13">
         <v>1055</v>
       </c>
       <c r="C45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E45" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F45" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G45" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B46" s="13">
         <v>1014</v>
       </c>
       <c r="C46" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D46" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E46" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F46" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G46" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B47" s="13">
         <v>1058</v>
       </c>
       <c r="C47" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D47" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E47" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G47" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B48" s="13">
         <v>1054</v>
       </c>
       <c r="C48" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D48" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E48" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F48" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G48" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B49" s="13">
         <v>1003</v>
       </c>
       <c r="C49" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D49" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E49" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F49" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G49" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B50" s="13">
         <v>1002</v>
       </c>
       <c r="C50" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D50" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E50" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F50" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G50" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B51" s="13">
         <v>1053</v>
       </c>
       <c r="C51" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D51" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E51" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F51" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G51" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B52" s="13">
         <v>1021</v>
       </c>
       <c r="C52" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D52" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E52" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="F52" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="G52" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B53" s="13">
         <v>1085</v>
       </c>
       <c r="C53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D53" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1090</v>
+      </c>
+      <c r="C54" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E53" t="e">
+      <c r="D54">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" t="e">
+        <v>1090</v>
+      </c>
+      <c r="E54" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G53" t="e">
+      <c r="F54" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
+      <c r="G54" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1392</v>
+      </c>
+      <c r="C55" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D55" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E55" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F55" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G55" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1393</v>
+      </c>
+      <c r="C56" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D56" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E56" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F56" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="J3" r:id="rId2" display="1045" tooltip="http://oj.czos.cn/problem.php?id=1045"/>
-    <hyperlink ref="J4" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="J5" r:id="rId4" display="1037" tooltip="http://oj.czos.cn/problem.php?id=1037"/>
-    <hyperlink ref="J6" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="J7" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="J8" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="J9" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="J10" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="J11" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="J12" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="J13" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="J14" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="J15" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="J16" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="J17" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="J18" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="J19" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
-    <hyperlink ref="K2" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="K3" r:id="rId20" display="1049" tooltip="http://oj.czos.cn/problem.php?id=1049"/>
-    <hyperlink ref="K4" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="K5" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="K6" r:id="rId21" display="1324" tooltip="http://oj.czos.cn/problem.php?id=1324"/>
-    <hyperlink ref="K7" r:id="rId22" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
-    <hyperlink ref="K8" r:id="rId23" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
-    <hyperlink ref="K9" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="K10" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="K11" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="K12" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="K13" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="K14" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="K15" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="K16" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="K17" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="K18" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="K19" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="K20" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="K21" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="L2" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="L3" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="L4" r:id="rId25" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
-    <hyperlink ref="L5" r:id="rId26" display="1301" tooltip="http://oj.czos.cn/problem.php?id=1301"/>
-    <hyperlink ref="L6" r:id="rId27" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
-    <hyperlink ref="L7" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="L8" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="L9" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="L10" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="L11" r:id="rId28" display="1029" tooltip="http://oj.czos.cn/problem.php?id=1029"/>
-    <hyperlink ref="L12" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="L13" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="L14" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="L15" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="L16" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="L17" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="L18" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="L19" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="L20" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="L21" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
-    <hyperlink ref="M2" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="M3" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="M4" r:id="rId25" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
-    <hyperlink ref="M5" r:id="rId29" display="1039" tooltip="http://oj.czos.cn/problem.php?id=1039"/>
-    <hyperlink ref="M6" r:id="rId1" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="M7" r:id="rId30" display="1305" tooltip="http://oj.czos.cn/problem.php?id=1305"/>
-    <hyperlink ref="M8" r:id="rId31" display="1035" tooltip="http://oj.czos.cn/problem.php?id=1035"/>
-    <hyperlink ref="M9" r:id="rId3" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="M10" r:id="rId22" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
-    <hyperlink ref="M11" r:id="rId5" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="M12" r:id="rId27" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
-    <hyperlink ref="M13" r:id="rId32" display="1033" tooltip="http://oj.czos.cn/problem.php?id=1033"/>
-    <hyperlink ref="M14" r:id="rId23" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
-    <hyperlink ref="M15" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="M16" r:id="rId24" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="M17" r:id="rId7" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="M18" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="M19" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="M20" r:id="rId11" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="M21" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="M22" r:id="rId10" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="M23" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="M24" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
-    <hyperlink ref="M25" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="M26" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="N2" r:id="rId19" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="N3" r:id="rId6" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="N4" r:id="rId8" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="N5" r:id="rId9" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="N6" r:id="rId12" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="N7" r:id="rId13" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="N8" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="N9" r:id="rId14" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="N10" r:id="rId15" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="N11" r:id="rId16" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="N12" r:id="rId17" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="N13" r:id="rId18" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="J2" r:id="rId1" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1045" display="1045" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1037" display="1037" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K2" r:id="rId19" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K3" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1049" display="1049" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K4" r:id="rId21" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K5" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K6" r:id="rId23" tooltip="http://oj.czos.cn/problem.php?id=1324" display="1324" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K7" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K8" r:id="rId25" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K9" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K10" r:id="rId27" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K11" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K12" r:id="rId29" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K13" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K14" r:id="rId31" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K15" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K16" r:id="rId33" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K17" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K18" r:id="rId35" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K20" r:id="rId37" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K21" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L2" r:id="rId39" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L3" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L4" r:id="rId41" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L5" r:id="rId42" tooltip="http://oj.czos.cn/problem.php?id=1301" display="1301" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L6" r:id="rId43" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L7" r:id="rId44" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L8" r:id="rId45" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L9" r:id="rId46" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L10" r:id="rId47" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L11" r:id="rId48" tooltip="http://oj.czos.cn/problem.php?id=1029" display="1029" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L12" r:id="rId49" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L13" r:id="rId50" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="L14" r:id="rId51" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L15" r:id="rId52" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L16" r:id="rId53" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L17" r:id="rId54" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L18" r:id="rId55" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L19" r:id="rId56" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L20" r:id="rId57" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L21" r:id="rId58" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="M2" r:id="rId59" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="M3" r:id="rId60" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M4" r:id="rId61" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M5" r:id="rId62" tooltip="http://oj.czos.cn/problem.php?id=1039" display="1039" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="M6" r:id="rId63" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M7" r:id="rId64" tooltip="http://oj.czos.cn/problem.php?id=1305" display="1305" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M8" r:id="rId65" tooltip="http://oj.czos.cn/problem.php?id=1035" display="1035" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M9" r:id="rId66" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M10" r:id="rId67" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M11" r:id="rId68" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="M12" r:id="rId69" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="M13" r:id="rId70" tooltip="http://oj.czos.cn/problem.php?id=1033" display="1033" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="M14" r:id="rId71" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="M15" r:id="rId72" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="M16" r:id="rId73" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="M17" r:id="rId74" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="M18" r:id="rId75" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="M19" r:id="rId76" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M20" r:id="rId77" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="M21" r:id="rId78" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="M22" r:id="rId79" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="M23" r:id="rId80" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="M24" r:id="rId81" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="M25" r:id="rId82" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="M26" r:id="rId83" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="N2" r:id="rId84" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="N3" r:id="rId85" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="N4" r:id="rId86" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="N5" r:id="rId87" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="N6" r:id="rId88" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="N7" r:id="rId89" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="N8" r:id="rId90" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="N9" r:id="rId91" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="N10" r:id="rId92" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="N11" r:id="rId93" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="N12" r:id="rId94" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="N13" r:id="rId95" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="27.5" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>149455</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4">
         <v>1044</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -3666,27 +3169,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" s="10">
-        <v>43799.6352777778</v>
+        <v>43799.635277777801</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>149273</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
         <v>1045</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>1544</v>
@@ -3695,27 +3198,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H3" s="11">
-        <v>43799.6022222222</v>
+        <v>43799.602222222202</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>149232</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>1304</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -3724,56 +3227,56 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H4" s="10">
-        <v>43799.5953819444</v>
+        <v>43799.595381944397</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>148045</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8">
         <v>1037</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6">
-        <v>1544</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" s="11">
-        <v>43797.9040277778</v>
+        <v>43797.904027777797</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>148033</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>1043</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -3782,56 +3285,56 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6" s="10">
-        <v>43797.8972916667</v>
+        <v>43797.897291666697</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>145232</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8">
         <v>1303</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6">
-        <v>1544</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" s="11">
-        <v>43792.6280671296</v>
+        <v>43792.628067129597</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>135514</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4">
         <v>1390</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -3840,27 +3343,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" s="10">
-        <v>43771.6423263889</v>
+        <v>43771.642326388901</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>135450</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8">
         <v>1028</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>1544</v>
@@ -3869,27 +3372,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H9" s="11">
-        <v>43771.6249884259</v>
+        <v>43771.624988425901</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>135387</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4">
         <v>1027</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -3898,27 +3401,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H10" s="10">
-        <v>43771.6165972222</v>
+        <v>43771.616597222201</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>132953</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8">
         <v>1337</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>1544</v>
@@ -3927,27 +3430,27 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H11" s="11">
-        <v>43765.4196990741</v>
+        <v>43765.419699074097</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>132801</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
         <v>1338</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -3956,27 +3459,27 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H12" s="10">
-        <v>43764.8778472222</v>
+        <v>43764.877847222197</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>132788</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8">
         <v>1329</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>1544</v>
@@ -3985,27 +3488,27 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H13" s="11">
-        <v>43764.8682407407</v>
+        <v>43764.868240740703</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>132531</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4">
         <v>1005</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>1544</v>
@@ -4014,27 +3517,27 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H14" s="10">
         <v>43764.6341203704</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>132330</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8">
         <v>1317</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
         <v>1544</v>
@@ -4043,27 +3546,27 @@
         <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H15" s="11">
-        <v>43764.6012384259</v>
+        <v>43764.601238425901</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>131664</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
         <v>1417</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2">
         <v>1544</v>
@@ -4072,27 +3575,27 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H16" s="10">
-        <v>43763.8902083333</v>
+        <v>43763.890208333301</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>129354</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" s="8">
         <v>1320</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E17" s="6">
         <v>1544</v>
@@ -4101,27 +3604,27 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H17" s="11">
-        <v>43757.6373958333</v>
+        <v>43757.637395833299</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>129219</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4">
         <v>1416</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2">
         <v>1544</v>
@@ -4130,27 +3633,27 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H18" s="10">
-        <v>43757.6139930556</v>
+        <v>43757.613993055602</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" ht="26" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>129154</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" s="8">
         <v>1000</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6">
         <v>1544</v>
@@ -4159,111 +3662,108 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H19" s="11">
-        <v>43757.5985648148</v>
+        <v>43757.598564814798</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C2" r:id="rId2" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="B3" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C3" r:id="rId3" display="1045" tooltip="http://oj.czos.cn/problem.php?id=1045"/>
-    <hyperlink ref="B4" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C4" r:id="rId4" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="B5" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C5" r:id="rId5" display="1037" tooltip="http://oj.czos.cn/problem.php?id=1037"/>
-    <hyperlink ref="B6" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C6" r:id="rId6" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="B7" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C7" r:id="rId7" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B8" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C8" r:id="rId8" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="B9" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C9" r:id="rId9" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B10" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C10" r:id="rId10" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B11" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C11" r:id="rId11" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="B12" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C12" r:id="rId12" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="B13" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C13" r:id="rId13" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B14" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C14" r:id="rId14" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="B15" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C15" r:id="rId15" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B16" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C16" r:id="rId16" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B17" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C17" r:id="rId17" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="B18" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C18" r:id="rId18" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B19" r:id="rId1" display="lisifan" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan"/>
-    <hyperlink ref="C19" r:id="rId19" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1045" display="1045" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1037" display="1037" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=lisifan" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="27.5" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153352</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4">
         <v>1031</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -4272,27 +3772,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H2" s="10">
-        <v>43806.5896759259</v>
+        <v>43806.589675925898</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>153178</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" s="8">
         <v>1049</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>1544</v>
@@ -4301,27 +3801,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.5638310185</v>
+        <v>43806.563831018502</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>149466</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4">
         <v>1044</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -4330,27 +3830,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10">
-        <v>43799.6408333333</v>
+        <v>43799.640833333302</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>149276</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8">
         <v>1304</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
         <v>1544</v>
@@ -4359,27 +3859,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" s="11">
-        <v>43799.6029976852</v>
+        <v>43799.602997685201</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>146792</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4">
         <v>1324</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -4388,27 +3888,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H6" s="10">
-        <v>43793.8931712963</v>
+        <v>43793.893171296302</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>146777</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8">
         <v>1030</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>1544</v>
@@ -4417,27 +3917,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11">
-        <v>43793.8857291667</v>
+        <v>43793.885729166701</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>146766</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4">
         <v>1034</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -4446,27 +3946,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H8" s="10">
-        <v>43793.8735069444</v>
+        <v>43793.873506944401</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>146760</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8">
         <v>1043</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>1544</v>
@@ -4475,27 +3975,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H9" s="11">
-        <v>43793.8704050926</v>
+        <v>43793.870405092603</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>145257</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>1303</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -4504,27 +4004,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H10" s="10">
         <v>43792.6352430556</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>135615</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>1109</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>1544</v>
@@ -4533,27 +4033,27 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H11" s="11">
-        <v>43771.6833101852</v>
+        <v>43771.683310185203</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>135488</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4">
         <v>1390</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -4562,27 +4062,27 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H12" s="10">
-        <v>43771.632337963</v>
+        <v>43771.632337962998</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>135462</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8">
         <v>1028</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>1544</v>
@@ -4591,27 +4091,27 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H13" s="11">
-        <v>43771.6277314815</v>
+        <v>43771.627731481502</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>135408</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4">
         <v>1027</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>1544</v>
@@ -4620,27 +4120,27 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H14" s="10">
-        <v>43771.6202314815</v>
+        <v>43771.620231481502</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>133692</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8">
         <v>1337</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
         <v>1544</v>
@@ -4649,27 +4149,27 @@
         <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H15" s="11">
         <v>43765.8444675926</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>132604</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4">
         <v>1338</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2">
         <v>1544</v>
@@ -4678,27 +4178,27 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H16" s="10">
         <v>43764.6777083333</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>132592</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8">
         <v>1329</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E17" s="6">
         <v>1544</v>
@@ -4707,27 +4207,27 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H17" s="11">
         <v>43764.6723263889</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>132548</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
         <v>1005</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2">
         <v>1544</v>
@@ -4736,27 +4236,27 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H18" s="10">
-        <v>43764.6403472222</v>
+        <v>43764.640347222201</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>132377</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8">
         <v>1317</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6">
         <v>1544</v>
@@ -4765,27 +4265,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H19" s="11">
-        <v>43764.6084259259</v>
+        <v>43764.608425925901</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>131403</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4">
         <v>1417</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2">
         <v>1544</v>
@@ -4794,27 +4294,27 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H20" s="10">
-        <v>43762.7978587963</v>
+        <v>43762.797858796301</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" ht="26" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>129331</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8">
         <v>1320</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6">
         <v>1544</v>
@@ -4823,115 +4323,114 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H21" s="11">
-        <v>43757.6314699074</v>
+        <v>43757.631469907399</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="B3" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C3" r:id="rId3" display="1049" tooltip="http://oj.czos.cn/problem.php?id=1049"/>
-    <hyperlink ref="B4" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C4" r:id="rId4" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="B5" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C5" r:id="rId5" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="B6" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C6" r:id="rId6" display="1324" tooltip="http://oj.czos.cn/problem.php?id=1324"/>
-    <hyperlink ref="B7" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C7" r:id="rId7" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
-    <hyperlink ref="B8" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C8" r:id="rId8" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
-    <hyperlink ref="B9" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C9" r:id="rId9" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="B10" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C10" r:id="rId10" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B11" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C11" r:id="rId11" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="B12" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C12" r:id="rId12" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="B13" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C13" r:id="rId13" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B14" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C14" r:id="rId14" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B15" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C15" r:id="rId15" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="B16" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C16" r:id="rId16" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="B17" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C17" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B18" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C18" r:id="rId18" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="B19" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C19" r:id="rId19" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B20" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C20" r:id="rId20" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B21" r:id="rId1" display="wangtianyi" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi"/>
-    <hyperlink ref="C21" r:id="rId21" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1049" display="1049" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1324" display="1324" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=wangtianyi" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="27.5" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153399</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4">
         <v>1417</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -4940,27 +4439,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H2" s="10">
-        <v>43806.5952662037</v>
+        <v>43806.595266203702</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>153367</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8">
         <v>1416</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>1544</v>
@@ -4969,27 +4468,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.5915509259</v>
+        <v>43806.591550925899</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>152522</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4">
         <v>1300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -4998,27 +4497,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H4" s="10">
-        <v>43805.895775463</v>
+        <v>43805.895775463003</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>152518</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8">
         <v>1301</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
         <v>1544</v>
@@ -5027,27 +4526,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H5" s="11">
-        <v>43805.8920949074</v>
+        <v>43805.892094907402</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>152512</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4">
         <v>1302</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -5056,27 +4555,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H6" s="10">
-        <v>43805.8899768519</v>
+        <v>43805.889976851897</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>149468</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8">
         <v>1044</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>1544</v>
@@ -5085,27 +4584,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H7" s="11">
-        <v>43799.6409143519</v>
+        <v>43799.640914351898</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>149268</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4">
         <v>1304</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -5114,27 +4613,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H8" s="10">
         <v>43799.5999884259</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>145247</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8">
         <v>1303</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>1544</v>
@@ -5143,27 +4642,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H9" s="11">
         <v>43792.6324074074</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>135804</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4">
         <v>1109</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -5172,27 +4671,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H10" s="10">
         <v>43771.8914351852</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>135773</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" s="8">
         <v>1029</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>1544</v>
@@ -5201,27 +4700,27 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11" s="11">
-        <v>43771.8271296296</v>
+        <v>43771.827129629601</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>135768</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4">
         <v>1390</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -5230,27 +4729,27 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H12" s="10">
-        <v>43771.8175810185</v>
+        <v>43771.817581018498</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>135500</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8">
         <v>1028</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>1544</v>
@@ -5259,27 +4758,27 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H13" s="11">
-        <v>43771.6375578704</v>
+        <v>43771.637557870403</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>135453</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="4">
         <v>1027</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>1544</v>
@@ -5288,27 +4787,27 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H14" s="10">
-        <v>43771.6252314815</v>
+        <v>43771.625231481499</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>134629</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C15" s="8">
         <v>1337</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
         <v>1544</v>
@@ -5317,27 +4816,27 @@
         <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H15" s="11">
-        <v>43770.8593518519</v>
+        <v>43770.859351851897</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>134613</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4">
         <v>1338</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2">
         <v>1544</v>
@@ -5346,56 +4845,56 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H16" s="10">
-        <v>43770.8466203704</v>
+        <v>43770.846620370401</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>134612</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C17" s="8">
         <v>1329</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1544</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="6">
-        <v>1544</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="H17" s="11">
-        <v>43770.8436921296</v>
+        <v>43770.843692129602</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>133052</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4">
         <v>1320</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2">
         <v>1544</v>
@@ -5404,27 +4903,27 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H18" s="10">
-        <v>43765.4810300926</v>
+        <v>43765.481030092596</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>133046</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8">
         <v>1329</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E19" s="6">
         <v>1544</v>
@@ -5433,27 +4932,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H19" s="11">
         <v>43765.4769675926</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>133036</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4">
         <v>1329</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2">
         <v>1544</v>
@@ -5462,27 +4961,27 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H20" s="10">
         <v>43765.4703703704</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" ht="26" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>132559</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="8">
         <v>1000</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6">
         <v>1544</v>
@@ -5491,115 +4990,114 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H21" s="11">
-        <v>43764.6546990741</v>
+        <v>43764.654699074097</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C2" r:id="rId2" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B3" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C3" r:id="rId3" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B4" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C4" r:id="rId4" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
-    <hyperlink ref="B5" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C5" r:id="rId5" display="1301" tooltip="http://oj.czos.cn/problem.php?id=1301"/>
-    <hyperlink ref="B6" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C6" r:id="rId6" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
-    <hyperlink ref="B7" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C7" r:id="rId7" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="B8" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C8" r:id="rId8" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="B9" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C9" r:id="rId9" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B10" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C10" r:id="rId10" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="B11" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C11" r:id="rId11" display="1029" tooltip="http://oj.czos.cn/problem.php?id=1029"/>
-    <hyperlink ref="B12" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C12" r:id="rId12" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="B13" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C13" r:id="rId13" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B14" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C14" r:id="rId14" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B15" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C15" r:id="rId15" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="B16" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C16" r:id="rId16" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="B17" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C17" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B18" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C18" r:id="rId18" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="B19" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C19" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B20" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C20" r:id="rId17" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B21" r:id="rId1" display="liyifan189" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189"/>
-    <hyperlink ref="C21" r:id="rId19" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1301" display="1301" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1029" display="1029" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=liyifan189" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="27.5" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153374</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4">
         <v>1416</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -5608,27 +5106,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H2" s="10">
-        <v>43806.5925115741</v>
+        <v>43806.592511574097</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>153350</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="8">
         <v>1317</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>1544</v>
@@ -5637,27 +5135,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H3" s="11">
-        <v>43806.5892361111</v>
+        <v>43806.589236111096</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>152584</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>1300</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -5666,27 +5164,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H4" s="10">
         <v>43805.9203472222</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>152546</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" s="8">
         <v>1039</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
         <v>1544</v>
@@ -5695,27 +5193,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" s="11">
-        <v>43805.9055671296</v>
+        <v>43805.905567129601</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>152542</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4">
         <v>1044</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -5724,27 +5222,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H6" s="10">
-        <v>43805.9032060185</v>
+        <v>43805.903206018498</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>152527</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8">
         <v>1305</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>1544</v>
@@ -5753,27 +5251,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H7" s="11">
-        <v>43805.8983101852</v>
+        <v>43805.898310185199</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>152499</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4">
         <v>1035</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -5782,27 +5280,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H8" s="10">
-        <v>43805.8741666667</v>
+        <v>43805.874166666697</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>152414</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8">
         <v>1304</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>1544</v>
@@ -5811,27 +5309,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H9" s="11">
-        <v>43805.7949189815</v>
+        <v>43805.794918981497</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>148319</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4">
         <v>1030</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -5840,27 +5338,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H10" s="10">
         <v>43798.8035648148</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>148302</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C11" s="8">
         <v>1043</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>1544</v>
@@ -5869,27 +5367,27 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H11" s="11">
         <v>43798.7941319444</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>147930</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4">
         <v>1302</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -5898,27 +5396,27 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H12" s="10">
-        <v>43797.8188888889</v>
+        <v>43797.818888888898</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>147929</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C13" s="8">
         <v>1033</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>1544</v>
@@ -5927,27 +5425,27 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H13" s="11">
-        <v>43797.8154861111</v>
+        <v>43797.815486111103</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>147927</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4">
         <v>1034</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>1544</v>
@@ -5956,27 +5454,27 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H14" s="10">
-        <v>43797.8136458333</v>
+        <v>43797.813645833303</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>145218</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C15" s="8">
         <v>1303</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
         <v>1544</v>
@@ -5985,27 +5483,27 @@
         <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H15" s="11">
-        <v>43792.6243055556</v>
+        <v>43792.624305555597</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>139011</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C16" s="4">
         <v>1109</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2">
         <v>1544</v>
@@ -6014,27 +5512,27 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H16" s="10">
         <v>43778.6861921296</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>137571</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C17" s="8">
         <v>1390</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E17" s="6">
         <v>1544</v>
@@ -6043,27 +5541,27 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H17" s="11">
-        <v>43776.8765393519</v>
+        <v>43776.876539351899</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>135476</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4">
         <v>1028</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2">
         <v>1544</v>
@@ -6072,27 +5570,27 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H18" s="10">
         <v>43771.6300694444</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>135416</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C19" s="8">
         <v>1027</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6">
         <v>1544</v>
@@ -6101,27 +5599,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="11">
-        <v>43771.6216319444</v>
+        <v>43771.621631944399</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>134670</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C20" s="4">
         <v>1338</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2">
         <v>1544</v>
@@ -6130,27 +5628,27 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H20" s="10">
-        <v>43770.8851388889</v>
+        <v>43770.885138888902</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" ht="26" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>134660</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C21" s="8">
         <v>1337</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6">
         <v>1544</v>
@@ -6159,115 +5657,114 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H21" s="11">
-        <v>43770.8781365741</v>
+        <v>43770.878136574102</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C2" r:id="rId2" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B3" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C3" r:id="rId3" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B4" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C4" r:id="rId4" display="1300" tooltip="http://oj.czos.cn/problem.php?id=1300"/>
-    <hyperlink ref="B5" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C5" r:id="rId5" display="1039" tooltip="http://oj.czos.cn/problem.php?id=1039"/>
-    <hyperlink ref="B6" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C6" r:id="rId6" display="1044" tooltip="http://oj.czos.cn/problem.php?id=1044"/>
-    <hyperlink ref="B7" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C7" r:id="rId7" display="1305" tooltip="http://oj.czos.cn/problem.php?id=1305"/>
-    <hyperlink ref="B8" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C8" r:id="rId8" display="1035" tooltip="http://oj.czos.cn/problem.php?id=1035"/>
-    <hyperlink ref="B9" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C9" r:id="rId9" display="1304" tooltip="http://oj.czos.cn/problem.php?id=1304"/>
-    <hyperlink ref="B10" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C10" r:id="rId10" display="1030" tooltip="http://oj.czos.cn/problem.php?id=1030"/>
-    <hyperlink ref="B11" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C11" r:id="rId11" display="1043" tooltip="http://oj.czos.cn/problem.php?id=1043"/>
-    <hyperlink ref="B12" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C12" r:id="rId12" display="1302" tooltip="http://oj.czos.cn/problem.php?id=1302"/>
-    <hyperlink ref="B13" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C13" r:id="rId13" display="1033" tooltip="http://oj.czos.cn/problem.php?id=1033"/>
-    <hyperlink ref="B14" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C14" r:id="rId14" display="1034" tooltip="http://oj.czos.cn/problem.php?id=1034"/>
-    <hyperlink ref="B15" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C15" r:id="rId15" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B16" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C16" r:id="rId16" display="1109" tooltip="http://oj.czos.cn/problem.php?id=1109"/>
-    <hyperlink ref="B17" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C17" r:id="rId17" display="1390" tooltip="http://oj.czos.cn/problem.php?id=1390"/>
-    <hyperlink ref="B18" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C18" r:id="rId18" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B19" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C19" r:id="rId19" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B20" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C20" r:id="rId20" display="1338" tooltip="http://oj.czos.cn/problem.php?id=1338"/>
-    <hyperlink ref="B21" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C21" r:id="rId21" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1300" display="1300" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1039" display="1039" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1044" display="1044" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1305" display="1305" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1035" display="1035" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1304" display="1304" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1030" display="1030" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1043" display="1043" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1302" display="1302" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1033" display="1033" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" tooltip="http://oj.czos.cn/problem.php?id=1034" display="1034" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" tooltip="http://oj.czos.cn/problem.php?id=1109" display="1109" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" tooltip="http://oj.czos.cn/problem.php?id=1390" display="1390" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" tooltip="http://oj.czos.cn/problem.php?id=1338" display="1338" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="27.5" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>134660</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4">
         <v>1337</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -6276,27 +5773,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H2" s="10">
-        <v>43770.8781365741</v>
+        <v>43770.878136574102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>134638</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="8">
         <v>1329</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>1544</v>
@@ -6305,27 +5802,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H3" s="11">
         <v>43770.8671875</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>134407</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>1000</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -6334,27 +5831,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H4" s="10">
-        <v>43769.8903703704</v>
+        <v>43769.890370370398</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>132541</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" s="8">
         <v>1031</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
         <v>1544</v>
@@ -6363,27 +5860,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5" s="11">
-        <v>43764.6371527778</v>
+        <v>43764.637152777803</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="26" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>131542</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4">
         <v>1417</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -6392,85 +5889,84 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H6" s="10">
-        <v>43763.7349074074</v>
+        <v>43763.734907407401</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C2" r:id="rId2" display="1337" tooltip="http://oj.czos.cn/problem.php?id=1337"/>
-    <hyperlink ref="B3" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C3" r:id="rId3" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B4" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C4" r:id="rId4" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
-    <hyperlink ref="B5" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C5" r:id="rId5" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="B6" r:id="rId1" display="zuochenglin" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin"/>
-    <hyperlink ref="C6" r:id="rId6" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1337" display="1337" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zuochenglin" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="27.5" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153378</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4">
         <v>1031</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -6479,27 +5975,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H2" s="10">
-        <v>43806.5929050926</v>
+        <v>43806.592905092599</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>145260</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3" s="8">
         <v>1303</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>1544</v>
@@ -6508,27 +6004,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H3" s="11">
-        <v>43792.6356018518</v>
+        <v>43792.635601851798</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>135498</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4">
         <v>1028</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -6537,27 +6033,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H4" s="10">
-        <v>43771.6356481481</v>
+        <v>43771.635648148098</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>135484</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" s="8">
         <v>1027</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
         <v>1544</v>
@@ -6566,27 +6062,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H5" s="11">
-        <v>43771.6314467593</v>
+        <v>43771.631446759297</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>135251</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4">
         <v>1329</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -6595,27 +6091,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H6" s="10">
-        <v>43771.5733101852</v>
+        <v>43771.573310185202</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>132550</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="8">
         <v>1005</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>1544</v>
@@ -6624,27 +6120,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H7" s="11">
-        <v>43764.6412847222</v>
+        <v>43764.641284722202</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>132429</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4">
         <v>1317</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -6653,27 +6149,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H8" s="10">
-        <v>43764.6170138889</v>
+        <v>43764.617013888899</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>132393</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C9" s="8">
         <v>1317</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>1544</v>
@@ -6682,27 +6178,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H9" s="11">
-        <v>43764.610775463</v>
+        <v>43764.610775462999</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>129397</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="4">
         <v>1417</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -6711,27 +6207,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H10" s="10">
-        <v>43757.6631134259</v>
+        <v>43757.663113425901</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>129344</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11" s="8">
         <v>1320</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>1544</v>
@@ -6740,27 +6236,27 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H11" s="11">
-        <v>43757.6340856481</v>
+        <v>43757.634085648097</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>129232</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C12" s="4">
         <v>1416</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -6769,27 +6265,27 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H12" s="10">
-        <v>43757.6207175926</v>
+        <v>43757.620717592603</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="26" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>129156</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="8">
         <v>1000</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>1544</v>
@@ -6798,99 +6294,98 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H13" s="11">
-        <v>43757.6002083333</v>
+        <v>43757.600208333301</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="B3" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C3" r:id="rId3" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B4" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C4" r:id="rId4" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B5" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C5" r:id="rId5" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B6" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C6" r:id="rId6" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B7" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C7" r:id="rId7" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="B8" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C8" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B9" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C9" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B10" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C10" r:id="rId9" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B11" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C11" r:id="rId10" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="B12" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C12" r:id="rId11" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B13" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C13" r:id="rId12" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="27.5" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>153378</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4">
         <v>1031</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1544</v>
@@ -6899,27 +6394,27 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H2" s="10">
-        <v>43806.5929050926</v>
+        <v>43806.592905092599</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>145260</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3" s="8">
         <v>1303</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6">
         <v>1544</v>
@@ -6928,27 +6423,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H3" s="11">
-        <v>43792.6356018518</v>
+        <v>43792.635601851798</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>135498</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4">
         <v>1028</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>1544</v>
@@ -6957,27 +6452,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H4" s="10">
-        <v>43771.6356481481</v>
+        <v>43771.635648148098</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>135484</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" s="8">
         <v>1027</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
         <v>1544</v>
@@ -6986,27 +6481,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H5" s="11">
-        <v>43771.6314467593</v>
+        <v>43771.631446759297</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>135251</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4">
         <v>1329</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>1544</v>
@@ -7015,27 +6510,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H6" s="10">
-        <v>43771.5733101852</v>
+        <v>43771.573310185202</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>132550</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="8">
         <v>1005</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>1544</v>
@@ -7044,27 +6539,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H7" s="11">
-        <v>43764.6412847222</v>
+        <v>43764.641284722202</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>132429</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4">
         <v>1317</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>1544</v>
@@ -7073,27 +6568,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H8" s="10">
-        <v>43764.6170138889</v>
+        <v>43764.617013888899</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>132393</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C9" s="8">
         <v>1317</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>1544</v>
@@ -7102,27 +6597,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H9" s="11">
-        <v>43764.610775463</v>
+        <v>43764.610775462999</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>129397</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="4">
         <v>1417</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>1544</v>
@@ -7131,27 +6626,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H10" s="10">
-        <v>43757.6631134259</v>
+        <v>43757.663113425901</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>129344</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11" s="8">
         <v>1320</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6">
         <v>1544</v>
@@ -7160,27 +6655,27 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H11" s="11">
-        <v>43757.6340856481</v>
+        <v>43757.634085648097</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="26.75" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>129232</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C12" s="4">
         <v>1416</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1544</v>
@@ -7189,27 +6684,27 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H12" s="10">
-        <v>43757.6207175926</v>
+        <v>43757.620717592603</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="26" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>129156</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="8">
         <v>1000</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>1544</v>
@@ -7218,43 +6713,43 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H13" s="11">
-        <v>43757.6002083333</v>
+        <v>43757.600208333301</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C2" r:id="rId2" display="1031" tooltip="http://oj.czos.cn/problem.php?id=1031"/>
-    <hyperlink ref="B3" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C3" r:id="rId3" display="1303" tooltip="http://oj.czos.cn/problem.php?id=1303"/>
-    <hyperlink ref="B4" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C4" r:id="rId4" display="1028" tooltip="http://oj.czos.cn/problem.php?id=1028"/>
-    <hyperlink ref="B5" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C5" r:id="rId5" display="1027" tooltip="http://oj.czos.cn/problem.php?id=1027"/>
-    <hyperlink ref="B6" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C6" r:id="rId6" display="1329" tooltip="http://oj.czos.cn/problem.php?id=1329"/>
-    <hyperlink ref="B7" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C7" r:id="rId7" display="1005" tooltip="http://oj.czos.cn/problem.php?id=1005"/>
-    <hyperlink ref="B8" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C8" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B9" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C9" r:id="rId8" display="1317" tooltip="http://oj.czos.cn/problem.php?id=1317"/>
-    <hyperlink ref="B10" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C10" r:id="rId9" display="1417" tooltip="http://oj.czos.cn/problem.php?id=1417"/>
-    <hyperlink ref="B11" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C11" r:id="rId10" display="1320" tooltip="http://oj.czos.cn/problem.php?id=1320"/>
-    <hyperlink ref="B12" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C12" r:id="rId11" display="1416" tooltip="http://oj.czos.cn/problem.php?id=1416"/>
-    <hyperlink ref="B13" r:id="rId1" display="zhangsunheao" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao"/>
-    <hyperlink ref="C13" r:id="rId12" display="1000" tooltip="http://oj.czos.cn/problem.php?id=1000"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="http://oj.czos.cn/problem.php?id=1031" display="1031" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="http://oj.czos.cn/problem.php?id=1303" display="1303" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="http://oj.czos.cn/problem.php?id=1028" display="1028" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="http://oj.czos.cn/problem.php?id=1027" display="1027" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="http://oj.czos.cn/problem.php?id=1329" display="1329" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="http://oj.czos.cn/problem.php?id=1005" display="1005" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="http://oj.czos.cn/problem.php?id=1317" display="1317" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" tooltip="http://oj.czos.cn/problem.php?id=1417" display="1417" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" tooltip="http://oj.czos.cn/problem.php?id=1320" display="1320" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" tooltip="http://oj.czos.cn/problem.php?id=1416" display="1416" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="http://oj.czos.cn/userinfo.php?user=zhangsunheao" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" tooltip="http://oj.czos.cn/problem.php?id=1000" display="1000" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>